--- a/NonControversialResults.xlsx
+++ b/NonControversialResults.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,27 +389,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://www.libelle-lekker.be', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://budgetstijl.nl', 'budgetstijl.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'rutgerbakt.nl', 'ah.nl', 'bakkenzoalsoma.nl', 'recepten.tips', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'budgetstijl.nl']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.hondennamen.nu', 'www.herdershonden.nl', 'Petplan.nl', 'https://www.petplan.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl', 'https://www.hondennamen.nl', 'https://www.mcvoordieren.nl']</t>
+          <t>['dierendokters.com', 'hondennamen.nu', 'herdershonden.nl', 'petplan.nl', 'honden-plein.nl', 'honden-plein.nl', 'royalcanin.nl', 'hondennamen.nl', 'mcvoordieren.nl', 'dierennamen.net']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'https://wikikids.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'maken.wikiwijs.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'wikikids.nl', 'welingelichtekringen.nl', 'maken.wikiwijs.nl']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.voedingsacademy.nl', 'https://www.vitens.com']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'dokterdokter.nl', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'voedingsacademy.nl', 'vitens.com']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.volkskrant.nl', 'https://www.nu.nl', 'https://www.wodc.nl', 'Startpagina.nl', 'https://www.startpagina.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'volkskrant.nl', 'nu.nl', 'wodc.nl', 'startpagina.nl']</t>
         </is>
       </c>
     </row>
@@ -419,27 +419,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.libelle-lekker.be', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'libelle-lekker.be', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.royalcanin.nl', 'https://www.hondennamen.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'royalcanin.nl', 'hondennamen.nl', 'honden-plein.nl', 'honden-plein.nl', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'https://www.w-tjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'https://wikikids.nl']</t>
+          <t>['nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'w-tjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'welingelichtekringen.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'https://www.hartvannederland.nl', 'www.republiekallochtonie.nl', 'https://www.nrc.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'Startpagina.nl', 'https://www.startpagina.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'hartvannederland.nl', 'republiekallochtonie.nl', 'nrc.nl', 'nu.nl', 'volkskrant.nl', 'startpagina.nl']</t>
         </is>
       </c>
     </row>
@@ -449,27 +449,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.libelle-lekker.be', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl', 'Baknieuws.nl\u200e', 'Advertentiewww.baknieuws.nl/\u200e', 'Baknieuws.nlSingle']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'libelle-lekker.be', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.mcvoordieren.nl', 'https://www.royalcanin.nl', 'https://www.hondennamen.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'mcvoordieren.nl', 'royalcanin.nl', 'hondennamen.nl', 'honden-plein.nl', 'honden-plein.nl', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'https://www.w-tjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'w-tjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'welingelichtekringen.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'dokterdokter.nl', 'nl.wikipedia.org', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'https://www.hartvannederland.nl', 'www.republiekallochtonie.nl', 'https://www.nrc.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'Startpagina.nl', 'https://www.startpagina.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'hartvannederland.nl', 'republiekallochtonie.nl', 'nrc.nl', 'nu.nl', 'volkskrant.nl', 'startpagina.nl']</t>
         </is>
       </c>
     </row>
@@ -479,27 +479,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.libelle-lekker.be', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'libelle-lekker.be', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.royalcanin.nl', 'https://www.mcvoordieren.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.hondennamen.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'royalcanin.nl', 'mcvoordieren.nl', 'honden-plein.nl', 'honden-plein.nl', 'hondennamen.nl', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'https://www.w-tjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'w-tjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'welingelichtekringen.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'dokterdokter.nl', 'nl.wikipedia.org', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'https://www.hartvannederland.nl', 'www.republiekallochtonie.nl', 'https://www.nrc.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'Startpagina.nl', 'https://www.startpagina.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'hartvannederland.nl', 'republiekallochtonie.nl', 'nrc.nl', 'nu.nl', 'volkskrant.nl', 'startpagina.nl']</t>
         </is>
       </c>
     </row>
@@ -509,27 +509,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.libelle-lekker.be', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'libelle-lekker.be', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.royalcanin.nl', 'https://www.mcvoordieren.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.hondennamen.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'royalcanin.nl', 'mcvoordieren.nl', 'honden-plein.nl', 'honden-plein.nl', 'hondennamen.nl', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'https://www.w-tjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'w-tjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'welingelichtekringen.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'dokterdokter.nl', 'nl.wikipedia.org', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'https://www.hartvannederland.nl', 'www.republiekallochtonie.nl', 'https://www.nrc.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'Startpagina.nl', 'https://www.startpagina.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'hartvannederland.nl', 'republiekallochtonie.nl', 'nrc.nl', 'nu.nl', 'volkskrant.nl', 'startpagina.nl']</t>
         </is>
       </c>
     </row>
@@ -539,27 +539,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.libelle-lekker.be', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'libelle-lekker.be', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.mcvoordieren.nl', 'https://www.royalcanin.nl', 'https://www.hondennamen.nl', 'https://www.hondennamen.nl', 'https://hondennamen.info']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'honden-plein.nl', 'petplan.nl', 'mcvoordieren.nl', 'royalcanin.nl', 'hondennamen.nl', 'hondennamen.nl']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'https://www.w-tjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'w-tjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'welingelichtekringen.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'dokterdokter.nl', 'nl.wikipedia.org', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'https://www.hartvannederland.nl', 'www.republiekallochtonie.nl', 'https://www.nrc.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'Startpagina.nl', 'https://www.startpagina.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'hartvannederland.nl', 'republiekallochtonie.nl', 'nrc.nl', 'nu.nl', 'volkskrant.nl', 'startpagina.nl']</t>
         </is>
       </c>
     </row>
@@ -569,27 +569,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.libelle-lekker.be', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'libelle-lekker.be', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.royalcanin.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.hondennamen.nl', 'https://www.mcvoordieren.nl', 'https://www.hondenpage.com', 'https://hondennamen.info']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'royalcanin.nl', 'honden-plein.nl', 'hondennamen.nl', 'mcvoordieren.nl', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'https://www.w-tjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'w-tjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'welingelichtekringen.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'dokterdokter.nl', 'nl.wikipedia.org', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'https://www.hartvannederland.nl', 'www.republiekallochtonie.nl', 'https://www.nrc.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'Startpagina.nl', 'https://www.startpagina.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'hartvannederland.nl', 'republiekallochtonie.nl', 'nrc.nl', 'nu.nl', 'volkskrant.nl', 'startpagina.nl']</t>
         </is>
       </c>
     </row>
@@ -599,27 +599,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'https://www.bakkenzoalsoma.nl', 'https://www.libelle-lekker.be', 'https://dagelijksekost.een.be', 'https://broodsmakelijk.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'rutgerbakt.nl', 'ah.nl', 'bakkenzoalsoma.nl', 'recepten.tips', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['https://www.hondennamen.nl', 'https://www.dierendokters.com', 'www.hondennamen.nu', 'https://www.royalcanin.nl', 'https://www.honden-plein.nl', 'Honden-plein.nl', 'www.herdershonden.nl', 'Herdershonden.nl', 'https://www.mcvoordieren.nl', 'https://www.petplan.nl', 'Petplan.nl', 'https://www.linda.nl', 'LINDA.nl', 'Rover.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'royalcanin.nl', 'honden-plein.nl', 'mcvoordieren.nl', 'hondennamen.nl', 'hondenpage.com', 'dierennamen.net']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['https://https://nl.m.wikipedia.org', 'https://https://nl.m.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'https://https://nl.toluna.com', 'https://www.scholieren.com', 'Scholieren.com', 'Scholieren.com', 'bhamega.com', 'https://https://nl.quora.com', 'sttimsinhouston.com', 'https://www.alletop10lijstjes.nl', 'https://www.gezondheidsplein.nl', 'Gezondheidsplein.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'w-tjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'wikikids.nl', 'welingelichtekringen.nl']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['https://www.dokterdokter.nl', 'Dokterdokter.nl', 'https://m.facebook.com', 'https://https://nl.m.wikipedia.org', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.dokterdokter.nl', 'Dokterdokter.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://mobiel.voedingscentrum.nl', 'https://www.voedingsacademy.nl', 'https://www.groentehelden.nl']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'dokterdokter.nl', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://https://nl.m.wikipedia.org', 'https://allecijfers.nl', 'AlleCijfers.nl', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.trouw.nl', 'https://www.volkskrant.nl', 'https://www.nu.nl', 'https://www.startpagina.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nrc.nl', 'nu.nl', 'volkskrant.nl', 'startpagina.nl']</t>
         </is>
       </c>
     </row>
@@ -629,27 +629,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://www.libelle-lekker.be', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'libelle-lekker.be', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.royalcanin.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.mcvoordieren.nl', 'https://www.hondennamen.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'royalcanin.nl', 'mcvoordieren.nl', 'hondennamen.nl', 'honden-plein.nl', 'honden-plein.nl', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'https://www.w-tjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'https://wikikids.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'w-tjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'welingelichtekringen.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'dokterdokter.nl', 'nl.wikipedia.org', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nrc.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'Startpagina.nl', 'https://www.startpagina.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'hartvannederland.nl', 'republiekallochtonie.nl', 'nu.nl', 'volkskrant.nl', 'startpagina.nl', 'trouw.nl']</t>
         </is>
       </c>
     </row>
@@ -659,27 +659,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.libelle-lekker.be', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'libelle-lekker.be', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.royalcanin.nl', 'https://www.mcvoordieren.nl', 'https://www.hondennamen.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'honden-plein.nl', 'petplan.nl', 'mcvoordieren.nl', 'royalcanin.nl', 'hondennamen.nl', 'hondennamen.nl']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'https://www.w-tjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'w-tjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'welingelichtekringen.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'dokterdokter.nl', 'nl.wikipedia.org', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'vitens.com', 'maxvandaag.nl', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'https://www.hartvannederland.nl', 'www.republiekallochtonie.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'https://www.trouw.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'hartvannederland.nl', 'republiekallochtonie.nl', 'nu.nl', 'volkskrant.nl', 'startpagina.nl', 'trouw.nl']</t>
         </is>
       </c>
     </row>
@@ -689,27 +689,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'https://rutgerbakt.nl', 'https://www.ah.nl', 'https://www.libelle-lekker.be', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl']</t>
+          <t>['pageuitpaulineskeuken.nl/Uit', 'pagelibelle-lekker.be/Libelle', 'pagerutgerbakt.nl/Rutger', 'pageah.nl/Albert', 'pagebakkenzoalsoma.nl/Bakken', 'pagerecepten.tips/Recepten.tips', 'pagebroodsmakelijk.nl/Broodsmakelijk', 'pagebroodsmakelijk.nl/Broodsmakelijk', 'pagesmulweb.nl/Smulweb']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.mcvoordieren.nl', 'https://www.royalcanin.nl', 'https://www.hondennamen.nl', 'https://www.hondennamen.nl', 'https://hondennamen.info']</t>
+          <t>['pagedierendokters.com/DierenDokters', 'pageherdershonden.nl/Herdershonden.nl', 'pagehondennamen.nu/Hondennamen.nu', 'pagepetplan.nl/Petplan', 'pageroyalcanin.nl/Royal', 'pagehonden-plein.nl/Honden-plein.nl', 'pagemcvoordieren.nl/Medisch', 'pagehondennamen.nl/Hondennamen.nl', 'pagehondenpage.com/Hondenpage', 'dierennamen.net/Dierennamen']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'https://www.w-tjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'https://wikikids.nl']</t>
+          <t>['pagenl.ripleybelieves.com/nl.ripleybelieves.com', 'pagescholieren.com/Scholieren.com', 'pagenl.toluna.com/nl.toluna.com', 'pagealletop10lijstjes.nl/Alletop10lijstjes', 'pagew-tjes.nl/w-tjes.nl', 'pagegezondheidsplein.nl/Gezondheidsplein', 'pagestartpagina.nl/Startpagina.nl', 'pagewikikids.nl/Wikikids', 'pagewelingelichtekringen.nl/Welingelichte']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.vitens.com', 'https://www.maxvandaag.nl', 'https://www.voedingsacademy.nl']</t>
+          <t>['pagefacebook.com/Facebook', 'pagenl.wikipedia.org/Wikipedia', 'pagewisfaq.nl/WisFaq', 'pagestartpagina.nl/Startpagina.nl', 'pagestartpagina.nl/Startpagina', 'pagevoedingscentrum.nl/Voedingscentrum', 'pagemaxvandaag.nl/MAX', 'pagevitens.com/vitens.com', 'pagevoedingsacademy.nl/voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'https://www.hartvannederland.nl', 'www.republiekallochtonie.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'https://www.trouw.nl']</t>
+          <t>['pagecbs.nl/CBS.nl', 'pagecbs.nl/CBS.nl', 'pageallecijfers.nl/AlleCijfers.nl', 'pagenl.wikipedia.org/Wikipedia', 'pagerepubliekallochtonie.nl/Republiek', 'hartvannederland.nl/Hart', 'pagenu.nl/NU.nl', 'pagevolkskrant.nl/de', 'pagetrouw.nl/Trouw', 'pagertlz.nl/RTL-Z']</t>
         </is>
       </c>
     </row>
@@ -719,27 +719,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['pagehttps://uitpaulineskeuken.nl/Uit', 'uitpaulineskeuken.nl', 'pagehttps://www.libelle-lekker.be/Libelle', 'pagehttps://rutgerbakt.nl/Rutger', 'rutgerbakt.nl', 'pagehttps://www.ah.nl/Albert', 'pagehttps://www.bakkenzoalsoma.nl/Bakken', 'www.bakkenzoalsoma.nl', 'pagehttps://broodsmakelijk.nl/Broodsmakelijk', 'pagehttps://broodsmakelijk.nl/Broodsmakelijk', 'pagehttps://www.smulweb.nl/Smulweb', 'Smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'rutgerbakt.nl', 'ah.nl', 'bakkenzoalsoma.nl', 'recepten.tips', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'budgetstijl.nl']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['pagehttps://uitpaulineskeuken.nl/Uit', 'uitpaulineskeuken.nl', 'pagehttps://www.libelle-lekker.be/Libelle', 'pagehttps://rutgerbakt.nl/Rutger', 'rutgerbakt.nl', 'pagehttps://www.ah.nl/Albert', 'pagehttps://www.bakkenzoalsoma.nl/Bakken', 'www.bakkenzoalsoma.nl', 'pagehttps://broodsmakelijk.nl/Broodsmakelijk', 'pagehttps://broodsmakelijk.nl/Broodsmakelijk', 'pagehttps://www.smulweb.nl/Smulweb', 'Smulweb.nl', 'www.smulweb.nl', 'www.dier.nu/', 'pagehttps://www.dierendokters.com/DierenDokters', 'pagehttp://www.herdershonden.nl/Herdershonden.nl', 'pagehttp://www.hondennamen.nu/Hondennamen.nu', 'pagehttps://www.petplan.nl/Petplan', 'Petplan.nl', 'pagehttps://www.royalcanin.nl/Royal', 'pagehttps://www.honden-plein.nl/Honden-plein.nl', 'Honden-plein.nl', 'pagehttps://www.mcvoordieren.nl/Medisch', 'pagehttps://www.hondennamen.nl/Hondennamen.nl', 'pagehttps://www.hondenpage.com/Hondenpage']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'royalcanin.nl', 'honden-plein.nl', 'mcvoordieren.nl', 'hondennamen.nl', 'hondenpage.com', 'dierennamen.net']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org/https://https://nl.wikipedia.org', 'pagehttps://https://nl.ripleybelieves.com/https://https://nl.ripleybelieves.com', 'pagehttps://www.scholieren.com/Scholieren.com', 'Scholieren.com', 'pagehttps://https://nl.toluna.com/https://https://nl.toluna.com', 'pagehttps://www.alletop10lijstjes.nl/Alletop10lijstjes', 'pagehttps://www.w-tjes.nl/https://www.w-tjes.nl', 'pagehttps://www.gezondheidsplein.nl/Gezondheidsplein', 'Gezondheidsplein.nl', 'pagehttps://www.startpagina.nl/Startpagina.nl', 'Startpagina.nl', 'pagehttps://wikikids.nl/Wikikids', 'pagehttps://www.welingelichtekringen.nl/Welingelichte', 'Wel.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'w-tjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'wikikids.nl', 'welingelichtekringen.nl']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['https://www.dokterdokter.nl/https://www.dokterdokter.nl', 'Dokterdokter.nl', 'pagehttps://www.facebook.com/Facebook', 'pagehttps://https://nl.wikipedia.org/Wikipedia', 'pagehttps://www.wisfaq.nl/WisFaq', 'pagehttps://www.startpagina.nl/Startpagina.nl', 'pagehttps://www.startpagina.nl/Startpagina', 'pagehttps://www.voedingscentrum.nl/Voedingscentrum', 'pagehttps://www.maxvandaag.nl/MAX', 'pagehttps://www.vitens.com/https://www.vitens.com', 'pagehttps://www.voedingsacademy.nl/https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'dokterdokter.nl', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['pagehttps://www.cbs.nl/CBS.nl', 'pagehttps://www.cbs.nl/CBS.nl', 'pagehttps://allecijfers.nl/AlleCijfers.nl', 'pagehttps://https://nl.wikipedia.org/Wikipedia', 'pagehttp://www.republiekallochtonie.nl/Republiek', 'https://www.hartvannederland.nl/Hart', 'pagehttps://www.nu.nl/NU.nl', 'pagehttps://www.volkskrant.nl/de', 'pagehttps://www.trouw.nl/Trouw', 'pagehttps://www.rtlz.nl/RTL-Z']</t>
+          <t>['cbs.nl', 'cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nrc.nl', 'nu.nl', 'volkskrant.nl', 'rtlz.nl']</t>
         </is>
       </c>
     </row>
@@ -749,27 +749,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://www.libelle-lekker.be', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://budgetstijl.nl', 'budgetstijl.nl']</t>
+          <t>['uitpaulineskeuken.nl/uitpaulineskeuken.nl', 'rutgerbakt.nl/rutgerbakt.nl', 'rutgerbakt.nl/rutgerbakt.nl', 'ah.nl/ah.nl', 'libelle-lekker.be/libelle-lekker.be', 'broodsmakelijk.nl/broodsmakelijk.nl', 'broodsmakelijk.nl/broodsmakelijk.nl', 'bakkenzoalsoma.nl/bakkenzoalsoma.nl', 'smulweb.nl/smulweb.nl']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.royalcanin.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.mcvoordieren.nl', 'https://www.hondennamen.nl', 'https://www.hondenpage.com']</t>
+          <t>['pagedierendokters.com/dierendokters.com', 'pageherdershonden.nl/herdershonden.nl', 'pagehondennamen.nu/hondennamen.nu', 'pagepetplan.nl/petplan.nl', 'pageroyalcanin.nl/royalcanin.nl', 'pagehonden-plein.nl/honden-plein.nl', 'pagemcvoordieren.nl/mcvoordieren.nl', 'pagehondennamen.nl/hondennamen.nl', 'pagehondenpage.com/hondenpage.com', 'dierennamen.net/dierennamen.net']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'https://www.w-tjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'https://wikikids.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl']</t>
+          <t>['pagenl.wikipedia.org/nl.wikipedia.org', 'pagenl.ripleybelieves.com/nl.ripleybelieves.com', 'pagescholieren.com/scholieren.com', 'pagenl.toluna.com/nl.toluna.com', 'pagealletop10lijstjes.nl/alletop10lijstjes.nl', 'pagegezondheidsplein.nl/gezondheidsplein.nl', 'pagew-tjes.nl/w-tjes.nl', 'pagestartpagina.nl/startpagina.nl', 'pagewikikids.nl/wikikids.nl', 'pagewelingelichtekringen.nl/welingelichtekringen.nl']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['pagefacebook.com/facebook.com', 'pagenl.wikipedia.org/nl.wikipedia.org', 'pagedokterdokter.nl/dokterdokter.nl', 'pagewisfaq.nl/wisfaq.nl', 'pagestartpagina.nl/startpagina.nl', 'pagestartpagina.nl/startpagina.nl', 'pagevoedingscentrum.nl/voedingscentrum.nl', 'pagemaxvandaag.nl/maxvandaag.nl', 'pagevitens.com/vitens.com', 'pagevoedingsacademy.nl/voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://https://nl.wikipedia.org', 'https://allecijfers.nl', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nrc.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'https://www.rtlz.nl']</t>
+          <t>['pagecbs.nl/cbs.nl', 'pagecbs.nl/cbs.nl', 'pageallecijfers.nl/allecijfers.nl', 'pagenl.wikipedia.org/nl.wikipedia.org', 'pagerepubliekallochtonie.nl/republiekallochtonie.nl', 'hartvannederland.nl/hartvannederland.nl', 'pagenrc.nl/nrc.nl', 'pagenu.nl/nu.nl', 'pagevolkskrant.nl/volkskrant.nl', 'pagertlz.nl/rtlz.nl']</t>
         </is>
       </c>
     </row>
@@ -779,27 +779,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl/uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl/rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl/rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl/www.ah.nl', 'https://www.libelle-lekker.be/www.libelle-lekker.be', 'https://broodsmakelijk.nl/broodsmakelijk.nl', 'https://broodsmakelijk.nl/broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl/www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://www.smulweb.nl/www.smulweb.nl', 'Smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'recepten.tips', 'bakkenzoalsoma.nl', 'dagelijksekost.een.be', 'broodsmakelijk.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['www.dier.nu/', 'pagehttps://www.dierendokters.com/www.dierendokters.com', 'pagehttp://www.herdershonden.nl/www.herdershonden.nl', 'pagehttp://www.hondennamen.nu/www.hondennamen.nu', 'pagehttps://www.petplan.nl/www.petplan.nl', 'Petplan.nl', 'pagehttps://www.royalcanin.nl/www.royalcanin.nl', 'pagehttps://www.honden-plein.nl/www.honden-plein.nl', 'Honden-plein.nl', 'pagehttps://www.mcvoordieren.nl/www.mcvoordieren.nl', 'pagehttps://www.hondennamen.nl/www.hondennamen.nl', 'pagehttps://www.hondenpage.com/www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'hondennamen.nu', 'herdershonden.nl', 'dierennamen.net', 'petplan.nl', 'royalcanin.nl', 'hondennamen.nl', 'honden-plein.nl', 'mcvoordieren.nl', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org/https://nl.wikipedia.org', 'pagehttps://https://nl.wikipedia.org/https://nl.wikipedia.org', 'pagehttps://https://nl.ripleybelieves.com/https://nl.ripleybelieves.com', 'pagehttps://www.scholieren.com/www.scholieren.com', 'Scholieren.com', 'pagehttps://https://nl.toluna.com/https://nl.toluna.com', 'pagehttps://www.alletop10lijstjes.nl/www.alletop10lijstjes.nl', 'pagehttps://www.gezondheidsplein.nl/www.gezondheidsplein.nl', 'Gezondheidsplein.nl', 'pagehttps://www.w-tjes.nl/www.w-tjes.nl', 'pagehttps://www.startpagina.nl/www.startpagina.nl', 'Startpagina.nl', 'pagehttps://wikikids.nl/wikikids.nl', 'pagehttps://www.welingelichtekringen.nl/www.welingelichtekringen.nl', 'Wel.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'nl.toluna.com', 'scholieren.com', 'alletop10lijstjes.nl', 'bhamega.com', 'nl.quora.com', 'sttimsinhouston.com', 'gezondheidsplein.nl']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['https://www.dokterdokter.nl/www.dokterdokter.nl', 'Dokterdokter.nl', 'pagehttps://www.facebook.com/www.facebook.com', 'pagehttps://https://nl.wikipedia.org/https://nl.wikipedia.org', 'pagehttps://www.dokterdokter.nl/www.dokterdokter.nl', 'Dokterdokter.nl', 'pagehttps://www.wisfaq.nl/www.wisfaq.nl', 'pagehttps://www.startpagina.nl/www.startpagina.nl', 'pagehttps://www.startpagina.nl/www.startpagina.nl', 'pagehttps://www.voedingscentrum.nl/www.voedingscentrum.nl', 'pagehttps://www.maxvandaag.nl/www.maxvandaag.nl', 'pagehttps://www.vitens.com/www.vitens.com', 'pagehttps://www.voedingsacademy.nl/www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'wisfaq.nl', 'startpagina.nl', 'dokterdokter.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl', 'ivn.nl']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['pagehttps://www.cbs.nl/www.cbs.nl', 'pagehttps://www.cbs.nl/www.cbs.nl', 'pagehttps://allecijfers.nl/allecijfers.nl', 'pagehttps://https://nl.wikipedia.org/https://nl.wikipedia.org', 'pagehttp://www.republiekallochtonie.nl/www.republiekallochtonie.nl', 'https://www.hartvannederland.nl/www.hartvannederland.nl', 'pagehttps://www.nrc.nl/www.nrc.nl', 'pagehttps://www.nu.nl/www.nu.nl', 'pagehttps://www.volkskrant.nl/www.volkskrant.nl', 'pagehttps://www.rtlz.nl/www.rtlz.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'hartvannederland.nl', 'republiekallochtonie.nl', 'nrc.nl', 'volkskrant.nl', 'startpagina.nl', 'nu.nl']</t>
         </is>
       </c>
     </row>
@@ -809,27 +809,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://www.libelle-lekker.be', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://dagelijksekost.een.be', 'dagelijksekost.een.be', 'https://broodsmakelijk.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'libelle-lekker.be', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['https://www.dierendokters.com', 'www.hondennamen.nu', 'www.herdershonden.nl', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.royalcanin.nl', 'https://www.hondennamen.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.mcvoordieren.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'honden-plein.nl', 'royalcanin.nl', 'mcvoordieren.nl', 'hondennamen.nl', 'hondennamen.nl']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'https://https://nl.toluna.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://www.alletop10lijstjes.nl', 'bhamega.com', 'https://https://nl.quora.com', 'sttimsinhouston.com', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'welingelichtekringen.nl', 'w-tjes.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl', 'https://www.ivn.nl']</t>
+          <t>['facebook.com', 'dokterdokter.nl', 'nl.wikipedia.org', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'https://www.hartvannederland.nl', 'www.republiekallochtonie.nl', 'https://www.nrc.nl', 'https://www.volkskrant.nl', 'https://www.startpagina.nl', 'https://www.nu.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'hartvannederland.nl', 'republiekallochtonie.nl', 'nrc.nl', 'nu.nl', 'volkskrant.nl', 'startpagina.nl']</t>
         </is>
       </c>
     </row>
@@ -839,27 +839,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.libelle-lekker.be', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'rutgerbakt.nl', 'ah.nl', 'bakkenzoalsoma.nl', 'recepten.tips', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl', 'https://www.mcvoordieren.nl', 'https://www.hondennamen.nl', 'https://www.hondennamen.nl', 'https://hondennamen.info']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'royalcanin.nl', 'honden-plein.nl', 'mcvoordieren.nl', 'hondennamen.nl', 'hondenpage.com', 'dierennamen.net']</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'https://www.w-tjes.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'wikikids.nl', 'w-tjes.nl', 'welingelichtekringen.nl']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'wisfaq.nl', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'https://www.hartvannederland.nl', 'www.republiekallochtonie.nl', 'https://www.nrc.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'Startpagina.nl', 'https://www.startpagina.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'volkskrant.nl', 'startpagina.nl', 'rtlz.nl']</t>
         </is>
       </c>
     </row>
@@ -869,27 +869,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://www.libelle-lekker.be', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'rutgerbakt.nl', 'ah.nl', 'bakkenzoalsoma.nl', 'recepten.tips', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.royalcanin.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.mcvoordieren.nl', 'https://www.hondennamen.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'royalcanin.nl', 'honden-plein.nl', 'mcvoordieren.nl', 'hondennamen.nl', 'hondenpage.com', 'dierennamen.net']</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'https://wikikids.nl', 'https://www.w-tjes.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'wikikids.nl', 'w-tjes.nl', 'welingelichtekringen.nl']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'wisfaq.nl', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'https://www.rtlz.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'volkskrant.nl', 'startpagina.nl', 'rtlz.nl']</t>
         </is>
       </c>
     </row>
@@ -899,27 +899,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://www.libelle-lekker.be', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'libelle-lekker.be', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.royalcanin.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.mcvoordieren.nl', 'https://www.hondennamen.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'honden-plein.nl', 'royalcanin.nl', 'mcvoordieren.nl', 'hondennamen.nl', 'hondennamen.nl']</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'https://wikikids.nl', 'https://www.w-tjes.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'welingelichtekringen.nl', 'w-tjes.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'dokterdokter.nl', 'nl.wikipedia.org', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'https://www.rtlz.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'hartvannederland.nl', 'republiekallochtonie.nl', 'nu.nl', 'volkskrant.nl', 'startpagina.nl', 'trouw.nl']</t>
         </is>
       </c>
     </row>
@@ -929,27 +929,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.libelle-lekker.be', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'libelle-lekker.be', 'ah.nl', 'bakkenzoalsoma.nl', 'recepten.tips', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'budgetstijl.nl']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl', 'https://www.mcvoordieren.nl', 'https://www.hondennamen.nl', 'https://www.hondennamen.nl', 'https://hondennamen.info']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'honden-plein.nl', 'royalcanin.nl', 'mcvoordieren.nl', 'hondennamen.nl', 'hondenpage.com', 'dierennamen.net']</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'https://www.w-tjes.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'startpagina.nl', 'w-tjes.nl', 'wikikids.nl', 'maken.wikiwijs.nl']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'dokterdokter.nl', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'https://www.hartvannederland.nl', 'www.republiekallochtonie.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'https://www.startpagina.nl', 'https://www.trouw.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'volkskrant.nl', 'startpagina.nl', 'startpagina.nl', 'trouw.nl']</t>
         </is>
       </c>
     </row>
@@ -959,27 +959,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.libelle-lekker.be', 'https://www.ah.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://budgetstijl.nl', 'budgetstijl.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'libelle-lekker.be', 'ah.nl', 'bakkenzoalsoma.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl', 'https://www.mcvoordieren.nl', 'https://www.hondennamen.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'petplan.nl', 'hondennamen.nu', 'mcvoordieren.nl', 'royalcanin.nl', 'honden-plein.nl', 'honden-plein.nl', 'hondennamen.nl', 'hondennamen.nl']</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'https://www.w-tjes.nl', 'https://wikikids.nl', 'maken.wikiwijs.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'startpagina.nl', 'welingelichtekringen.nl', 'gezondheidsplein.nl', 'w-tjes.nl', 'maken.wikiwijs.nl']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'dokterdokter.nl', 'wisfaq.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.volkskrant.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.trouw.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'hartvannederland.nl', 'republiekallochtonie.nl', 'nu.nl', 'nrc.nl', 'volkskrant.nl', 'parool.nl']</t>
         </is>
       </c>
     </row>
@@ -989,27 +989,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.libelle-lekker.be', 'https://www.ah.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'libelle-lekker.be', 'ah.nl', 'bakkenzoalsoma.nl', 'recepten.tips', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'budgetstijl.nl']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl', 'https://www.mcvoordieren.nl', 'https://www.hondennamen.nl']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'petplan.nl', 'honden-plein.nl', 'royalcanin.nl', 'mcvoordieren.nl', 'hondennamen.nl', 'hondenpage.com', 'dierennamen.net']</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'https://https://nl.toluna.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://www.alletop10lijstjes.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'nl.toluna.com', 'scholieren.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'maken.wikiwijs.nl', 'welingelichtekringen.nl', 'wikikids.nl', 'w-tjes.nl']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://https://nl.wikipedia.org', 'https://www.facebook.com', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'wisfaq.nl', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://https://nl.wikipedia.org', 'https://allecijfers.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'nrc.nl', 'parool.nl', 'volkskrant.nl']</t>
         </is>
       </c>
     </row>
@@ -1019,27 +1019,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.libelle-lekker.be', 'https://www.ah.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'broodsmakelijk.nl', 'ah.nl', 'libelle-lekker.be', 'bakkenzoalsoma.nl', 'smulweb.nl', 'waterlily-unlimited.nl']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'Petplan.nl', 'https://www.petplan.nl', 'www.hondennamen.nu', 'https://www.mcvoordieren.nl', 'https://www.royalcanin.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.hondennamen.nl', 'https://www.hondennamen.nl']</t>
+          <t>['dierendokters.com', 'mcvoordieren.nl', 'herdershonden.nl', 'petplan.nl', 'hondennamen.nu', 'hondennamen.nl', 'honden-plein.nl', 'honden-plein.nl', 'royalcanin.nl', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Startpagina.nl', 'https://www.startpagina.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'https://www.w-tjes.nl', 'maken.wikiwijs.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'w-tjes.nl', 'welingelichtekringen.nl', 'maken.wikiwijs.nl', 'encyclo.nl']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'wisfaq.nl', 'nl.wikipedia.org', 'startpagina.nl', 'dokterdokter.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'vitens.com', 'voedingsacademy.nl', 'rdzl.nl']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'https://www.hartvannederland.nl', 'www.republiekallochtonie.nl', 'https://www.nu.nl', 'https://www.nrc.nl', 'https://www.volkskrant.nl', 'https://www.parool.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'parool.nl', 'nrc.nl']</t>
         </is>
       </c>
     </row>
@@ -1049,27 +1049,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.libelle-lekker.be', 'https://www.ah.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://budgetstijl.nl', 'budgetstijl.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'libelle-lekker.be', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl', 'https://www.mcvoordieren.nl', 'https://www.hondennamen.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'mcvoordieren.nl', 'hondennamen.nl', 'petplan.nl', 'hondennamen.nu', 'honden-plein.nl', 'honden-plein.nl', 'royalcanin.nl', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'https://https://nl.toluna.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'maken.wikiwijs.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'https://wikikids.nl', 'https://www.w-tjes.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'w-tjes.nl', 'welingelichtekringen.nl', 'maken.wikiwijs.nl', 'encyclo.nl']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'wisfaq.nl', 'nl.wikipedia.org', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.nrc.nl', 'https://www.parool.nl', 'https://www.volkskrant.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'nrc.nl', 'parool.nl', 'startpagina.nl']</t>
         </is>
       </c>
     </row>
@@ -1079,27 +1079,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'https://rutgerbakt.nl', 'https://broodsmakelijk.nl', 'https://www.ah.nl', 'https://www.libelle-lekker.be', 'https://www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'https://www.waterlily-unlimited.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'libelle-lekker.be', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'https://www.mcvoordieren.nl', 'www.herdershonden.nl', 'Petplan.nl', 'https://www.petplan.nl', 'www.hondennamen.nu', 'https://www.hondennamen.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'mcvoordieren.nl', 'hondennamen.nl', 'hondennamen.nu', 'petplan.nl', 'honden-plein.nl', 'honden-plein.nl', 'royalcanin.nl', 'dierennamen.net']</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'https://www.w-tjes.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'maken.wikiwijs.nl', 'https://www.encyclo.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'welingelichtekringen.nl', 'maken.wikiwijs.nl', 'encyclo.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://www.wisfaq.nl', 'https://https://nl.wikipedia.org', 'https://www.startpagina.nl', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.maxvandaag.nl', 'https://www.voedingscentrum.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl', 'www.rdzl.nl']</t>
+          <t>['facebook.com', 'wisfaq.nl', 'nl.wikipedia.org', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://longreads.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.parool.nl', 'https://www.nrc.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'parool.nl', 'volkskrant.nl']</t>
         </is>
       </c>
     </row>
@@ -1109,27 +1109,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.libelle-lekker.be', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'libelle-lekker.be', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'https://www.mcvoordieren.nl', 'https://www.hondennamen.nl', 'Petplan.nl', 'https://www.petplan.nl', 'www.hondennamen.nu', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'mcvoordieren.nl', 'hondennamen.nu', 'petplan.nl', 'hondennamen.nl', 'honden-plein.nl', 'honden-plein.nl', 'royalcanin.nl', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'https://www.w-tjes.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'maken.wikiwijs.nl', 'https://www.encyclo.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'welingelichtekringen.nl', 'maken.wikiwijs.nl', 'encyclo.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://www.wisfaq.nl', 'https://https://nl.wikipedia.org', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.maxvandaag.nl', 'https://www.voedingscentrum.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'wisfaq.nl', 'nl.wikipedia.org', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.nrc.nl', 'https://www.parool.nl', 'Startpagina.nl', 'https://www.startpagina.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'parool.nl', 'volkskrant.nl']</t>
         </is>
       </c>
     </row>
@@ -1139,27 +1139,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.libelle-lekker.be', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'bakkenzoalsoma.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'libelle-lekker.be', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'https://www.mcvoordieren.nl', 'https://www.hondennamen.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'mcvoordieren.nl', 'hondennamen.nu', 'hondennamen.nl', 'petplan.nl', 'honden-plein.nl', 'honden-plein.nl', 'royalcanin.nl', 'dierennamen.net']</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'maken.wikiwijs.nl', 'https://www.encyclo.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'welingelichtekringen.nl', 'maken.wikiwijs.nl', 'encyclo.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://www.wisfaq.nl', 'https://https://nl.wikipedia.org', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'wisfaq.nl', 'nl.wikipedia.org', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://longreads.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.parool.nl', 'https://www.volkskrant.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'volkskrant.nl', 'trouw.nl']</t>
         </is>
       </c>
     </row>
@@ -1169,27 +1169,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.libelle-lekker.be', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'bakkenzoalsoma.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'libelle-lekker.be', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'https://www.mcvoordieren.nl', 'www.hondennamen.nu', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.hondennamen.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'mcvoordieren.nl', 'petplan.nl', 'hondennamen.nu', 'hondennamen.nl', 'hondennamen.nl', 'honden-plein.nl', 'honden-plein.nl', 'royalcanin.nl']</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'maken.wikiwijs.nl', 'https://www.encyclo.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'welingelichtekringen.nl', 'maken.wikiwijs.nl', 'encyclo.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://www.wisfaq.nl', 'https://https://nl.wikipedia.org', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.maxvandaag.nl', 'https://www.voedingscentrum.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'wisfaq.nl', 'nl.wikipedia.org', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://longreads.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.parool.nl', 'https://www.volkskrant.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'trouw.nl', 'nji.nl', 'volksgezondheidenzorg.info']</t>
         </is>
       </c>
     </row>
@@ -1199,27 +1199,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.libelle-lekker.be', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'libelle-lekker.be', 'bakkenzoalsoma.nl', 'ah.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['https://www.dierendokters.com', 'www.herdershonden.nl', 'https://www.mcvoordieren.nl', 'www.hondennamen.nu', 'https://www.hondennamen.nl', 'Petplan.nl', 'https://www.petplan.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'mcvoordieren.nl', 'petplan.nl', 'hondennamen.nu', 'hondennamen.nl', 'hondennamen.nl', 'honden-plein.nl', 'honden-plein.nl', 'royalcanin.nl']</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'maken.wikiwijs.nl', 'https://www.encyclo.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'welingelichtekringen.nl', 'maken.wikiwijs.nl', 'encyclo.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://www.wisfaq.nl', 'https://https://nl.wikipedia.org', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.maxvandaag.nl', 'https://www.voedingscentrum.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'wisfaq.nl', 'nl.wikipedia.org', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://longreads.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl', 'https://www.trouw.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'longreads.cbs.nl', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'parool.nl', 'nrc.nl']</t>
         </is>
       </c>
     </row>
@@ -1229,27 +1229,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.libelle-lekker.be', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'libelle-lekker.be', 'ah.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'https://www.mcvoordieren.nl', 'Petplan.nl', 'https://www.petplan.nl', 'www.hondennamen.nu', 'https://www.hondennamen.nl', 'https://www.hondennamen.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'mcvoordieren.nl', 'hondennamen.nu', 'hondennamen.nl', 'hondennamen.nl', 'honden-plein.nl', 'honden-plein.nl', 'royalcanin.nl', 'petplan.nl']</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'maken.wikiwijs.nl', 'https://www.encyclo.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'alletop10lijstjes.nl', 'scholieren.com', 'nl.toluna.com', 'gezondheidsplein.nl', 'welingelichtekringen.nl', 'maken.wikiwijs.nl', 'encyclo.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://www.wisfaq.nl', 'https://https://nl.wikipedia.org', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.maxvandaag.nl', 'https://www.voedingscentrum.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'wisfaq.nl', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.trouw.nl', 'https://www.nji.nl', 'https://www.volksgezondheidenzorg.info']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'parool.nl', 'rtlnieuws.nl']</t>
         </is>
       </c>
     </row>
@@ -1259,27 +1259,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.libelle-lekker.be', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://www.ah.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'libelle-lekker.be', 'ah.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'https://www.mcvoordieren.nl', 'Petplan.nl', 'https://www.petplan.nl', 'www.hondennamen.nu', 'https://www.hondennamen.nl', 'https://www.hondennamen.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'mcvoordieren.nl', 'hondennamen.nu', 'hondennamen.nl', 'hondennamen.nl', 'honden-plein.nl', 'honden-plein.nl', 'royalcanin.nl', 'petplan.nl']</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'maken.wikiwijs.nl', 'https://www.encyclo.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'alletop10lijstjes.nl', 'scholieren.com', 'nl.toluna.com', 'gezondheidsplein.nl', 'welingelichtekringen.nl', 'maken.wikiwijs.nl', 'encyclo.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://www.wisfaq.nl', 'https://https://nl.wikipedia.org', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'wisfaq.nl', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'https://longreads.cbs.nl', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.parool.nl', 'https://www.nrc.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'parool.nl', 'rtlnieuws.nl']</t>
         </is>
       </c>
     </row>
@@ -1289,27 +1289,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.libelle-lekker.be', 'https://www.ah.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'libelle-lekker.be', 'ah.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'https://www.mcvoordieren.nl', 'www.hondennamen.nu', 'https://www.hondennamen.nl', 'https://www.hondennamen.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl', 'Petplan.nl', 'https://www.petplan.nl']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'mcvoordieren.nl', 'hondennamen.nu', 'honden-plein.nl', 'hondennamen.nl', 'hondennamen.nl', 'royalcanin.nl', 'petplan.nl', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'https://www.alletop10lijstjes.nl', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'maken.wikiwijs.nl', 'https://www.encyclo.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'alletop10lijstjes.nl', 'scholieren.com', 'nl.toluna.com', 'gezondheidsplein.nl', 'welingelichtekringen.nl', 'maken.wikiwijs.nl', 'encyclo.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.maxvandaag.nl', 'https://www.voedingscentrum.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'wisfaq.nl', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'voedingsacademy.nl', 'vitens.com']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://longreads.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.parool.nl', 'https://www.rtlnieuws.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'parool.nl', 'rtlnieuws.nl']</t>
         </is>
       </c>
     </row>
@@ -1319,27 +1319,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.libelle-lekker.be', 'https://www.ah.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'libelle-lekker.be', 'ah.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'waterlily-unlimited.nl']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'https://www.mcvoordieren.nl', 'www.hondennamen.nu', 'https://www.hondennamen.nl', 'https://www.hondennamen.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl', 'Petplan.nl', 'https://www.petplan.nl']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'mcvoordieren.nl', 'hondennamen.nu', 'honden-plein.nl', 'hondennamen.nl', 'hondennamen.nl', 'royalcanin.nl', 'petplan.nl', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'https://www.alletop10lijstjes.nl', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'maken.wikiwijs.nl', 'https://www.encyclo.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'alletop10lijstjes.nl', 'scholieren.com', 'nl.toluna.com', 'gezondheidsplein.nl', 'welingelichtekringen.nl', 'maken.wikiwijs.nl', 'encyclo.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.maxvandaag.nl', 'https://www.voedingscentrum.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'wisfaq.nl', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'voedingsacademy.nl', 'vitens.com']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://longreads.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.parool.nl', 'https://www.rtlnieuws.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'parool.nl', 'rtlnieuws.nl']</t>
         </is>
       </c>
     </row>
@@ -1349,27 +1349,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.libelle-lekker.be', 'https://www.ah.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'libelle-lekker.be', 'ah.nl', 'bakkenzoalsoma.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'recepten.tips', 'budgetstijl.nl']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'https://www.herdershonden.nl', 'https://www.mcvoordieren.nl', 'www.hondennamen.nu', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.hondennamen.nl', 'https://www.hondennamen.nl', 'https://www.royalcanin.nl', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nu', 'honden-plein.nl', 'mcvoordieren.nl', 'hondennamen.nl', 'royalcanin.nl', 'petplan.nl', 'hondenpage.com', 'dierennamen.net']</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'https://www.alletop10lijstjes.nl', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'maken.wikiwijs.nl', 'https://www.encyclo.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'scholieren.com', 'gezondheidsplein.nl', 'maken.wikiwijs.nl', 'wikikids.nl', 'menselijklichaam.nl']</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.maxvandaag.nl', 'https://www.voedingscentrum.nl', 'https://www.voedingsacademy.nl', 'https://www.vitens.com']</t>
+          <t>['nl.wikipedia.org', 'facebook.com', 'wisfaq.nl', 'startpagina.nl', 'dokterdokter.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl', 'mooiemoestuin.nl']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://longreads.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.parool.nl', 'https://www.rtlnieuws.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'republiekallochtonie.nl', 'hartvannederland.nl', 'parool.nl', 'nu.nl', 'rtlnieuws.nl', 'nji.nl']</t>
         </is>
       </c>
     </row>
@@ -1379,27 +1379,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.libelle-lekker.be', 'https://www.ah.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://www.waterlily-unlimited.nl', 'www.waterlily-unlimited.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'libelle-lekker.be', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'https://www.herdershonden.nl', 'https://www.mcvoordieren.nl', 'www.hondennamen.nu', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.hondennamen.nl', 'https://www.hondennamen.nl', 'https://www.royalcanin.nl', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'mcvoordieren.nl', 'hondennamen.nu', 'honden-plein.nl', 'hondennamen.nl', 'hondennamen.nl', 'royalcanin.nl', 'petplan.nl', 'dierennamen.net']</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'https://www.alletop10lijstjes.nl', 'Scholieren.com', 'https://www.scholieren.com', 'Scholieren.com', 'https://https://nl.toluna.com', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'maken.wikiwijs.nl', 'https://www.encyclo.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'alletop10lijstjes.nl', 'scholieren.com', 'nl.toluna.com', 'gezondheidsplein.nl', 'kosmisch.nl', 'welingelichtekringen.nl', 'maken.wikiwijs.nl', 'wikikids.nl']</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.maxvandaag.nl', 'https://www.voedingscentrum.nl', 'https://www.voedingsacademy.nl', 'https://www.vitens.com']</t>
+          <t>['facebook.com', 'nl.wikipedia.org', 'wisfaq.nl', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'voedingsacademy.nl', 'vitens.com']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://longreads.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.parool.nl', 'https://www.rtlnieuws.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'allecijfers.nl', 'nl.wikipedia.org', 'republiekallochtonie.nl', 'hartvannederland.nl', 'volkskrant.nl', 'parool.nl', 'nrc.nl']</t>
         </is>
       </c>
     </row>
@@ -1409,27 +1409,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.libelle-lekker.be', 'https://www.ah.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://budgetstijl.nl', 'budgetstijl.nl']</t>
+          <t>['uitpaulineskeuken.nl/uitpaulineskeuken.nl', 'libelle-lekker.be/libelle-lekker.be', 'bakkenzoalsoma.nl/bakkenzoalsoma.nl', 'rutgerbakt.nl/rutgerbakt.nl', 'ah.nl/ah.nl', 'broodsmakelijk.nl/broodsmakelijk.nl', 'broodsmakelijk.nl/broodsmakelijk.nl', 'recepten.tips/recepten.tips', 'laurasbakery.nl/laurasbakery.nl']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'www.herdershonden.nl', 'www.hondennamen.nu', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.mcvoordieren.nl', 'https://www.hondennamen.nl', 'https://www.royalcanin.nl', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.hondenpage.com']</t>
+          <t>['dierendokters.com/dierendokters.com', 'herdershonden.nl/herdershonden.nl', 'petplan.nl/petplan.nl', 'hondennamen.nu/hondennamen.nu', 'hondennamen.nu', 'honden-plein.nl/honden-plein.nl', 'hondennamen.nl/hondennamen.nl', 'hondennamen.nl', 'royalcanin.nl/royalcanin.nl', 'mcvoordieren.nl/mcvoordieren.nl', 'hondenpage.com/hondenpage.com', 'dierennamen.net/dierennamen.net']</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'https://https://nl.toluna.com', 'https://www.alletop10lijstjes.nl', 'Scholieren.com', 'https://www.scholieren.com', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'maken.wikiwijs.nl', 'https://wikikids.nl', 'https://www.menselijklichaam.nl']</t>
+          <t>['nl.wikipedia.org/nl.wikipedia.org', 'scholieren.com/scholieren.com', 'alletop10lijstjes.nl/alletop10lijstjes.nl', 'nl.toluna.com/nl.toluna.com', 'nl.ripleybelieves.com/nl.ripleybelieves.com', 'gezondheidsplein.nl/gezondheidsplein.nl', 'alleswetenoverosteoporose.nl/alleswetenoverosteoporose.nl', 'natuurinformatie.nl/natuurinformatie.nl', 'welingelichtekringen.nl/welingelichtekringen.nl']</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://https://nl.wikipedia.org', 'https://www.facebook.com', 'https://www.wisfaq.nl', 'https://www.startpagina.nl', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.vitens.com', 'https://www.voedingsacademy.nl', 'https://www.mooiemoestuin.nl']</t>
+          <t>['nl.wikipedia.org/nl.wikipedia.org', 'wisfaq.nl/wisfaq.nl', 'facebook.com/facebook.com', 'startpagina.nl/startpagina.nl', 'dokterdokter.nl/dokterdokter.nl', 'voedingscentrum.nl/voedingscentrum.nl', 'maxvandaag.nl/maxvandaag.nl', 'vitens.com/vitens.com', 'voedingsacademy.nl/voedingsacademy.nl', 'rdzl.nl/rdzl.nl']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://https://nl.wikipedia.org', 'https://allecijfers.nl', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.parool.nl', 'https://www.nu.nl', 'https://www.rtlnieuws.nl', 'https://www.nji.nl']</t>
+          <t>['cbs.nl/cbs.nl', 'cbs.nl/cbs.nl', 'nl.wikipedia.org/nl.wikipedia.org', 'allecijfers.nl/allecijfers.nl', 'republiekallochtonie.nl/republiekallochtonie.nl', 'hartvannederland.nl/hartvannederland.nl', 'nu.nl/nu.nl', 'parool.nl/parool.nl', 'nrc.nl/nrc.nl', 'volkskrant.nl/volkskrant.nl']</t>
         </is>
       </c>
     </row>
@@ -1439,27 +1439,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.ah.nl', 'https://www.libelle-lekker.be', 'https://broodsmakelijk.nl', 'https://broodsmakelijk.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl']</t>
+          <t>['uitpaulineskeuken.nl/uitpaulineskeuken.nl', 'rutgerbakt.nl/rutgerbakt.nl', 'broodsmakelijk.nl/broodsmakelijk.nl', 'libelle-lekker.be/libelle-lekker.be', 'bakkenzoalsoma.nl/bakkenzoalsoma.nl', 'ah.nl/ah.nl', 'culy.nl/culy.nl', 'laurasbakery.nl/laurasbakery.nl', 'waterlily-unlimited.nl/waterlily-unlimited.nl']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'https://www.herdershonden.nl', 'https://www.mcvoordieren.nl', 'www.hondennamen.nu', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.hondennamen.nl', 'https://www.hondennamen.nl', 'https://www.royalcanin.nl', 'Petplan.nl', 'https://www.petplan.nl']</t>
+          <t>['dierendokters.com/dierendokters.com', 'herdershonden.nl/herdershonden.nl', 'petplan.nl/petplan.nl', 'hondennamen.nl/hondennamen.nl', 'hondennamen.nu/hondennamen.nu', 'honden-plein.nl/honden-plein.nl', 'honden-plein.nl/honden-plein.nl', 'mcvoordieren.nl/mcvoordieren.nl', 'royalcanin.nl/royalcanin.nl', 'dierennamen.net/dierennamen.net']</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>['https://https://nl.wikipedia.org', 'https://https://nl.wikipedia.org', 'https://https://nl.ripleybelieves.com', 'https://www.alletop10lijstjes.nl', 'Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.toluna.com', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Kosmisch.nl', 'www.kosmisch.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'maken.wikiwijs.nl', 'https://wikikids.nl']</t>
+          <t>['nl.wikipedia.org/nl.wikipedia.org', 'scholieren.com/scholieren.com', 'alletop10lijstjes.nl/alletop10lijstjes.nl', 'nl.toluna.com/nl.toluna.com', 'nl.ripleybelieves.com/nl.ripleybelieves.com', 'gezondheidsplein.nl/gezondheidsplein.nl', 'kosmisch.nl/kosmisch.nl', 'alleswetenoverosteoporose.nl/alleswetenoverosteoporose.nl', 'welingelichtekringen.nl/welingelichtekringen.nl', 'natuurinformatie.nl/natuurinformatie.nl']</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'https://www.wisfaq.nl', 'Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.voedingscentrum.nl', 'https://www.maxvandaag.nl', 'https://www.voedingsacademy.nl', 'https://www.vitens.com']</t>
+          <t>['wisfaq.nl/wisfaq.nl', 'facebook.com/facebook.com', 'nl.wikipedia.org/nl.wikipedia.org', 'dokterdokter.nl/dokterdokter.nl', 'startpagina.nl/startpagina.nl', 'startpagina.nl/startpagina.nl', 'voedingscentrum.nl/voedingscentrum.nl', 'maxvandaag.nl/maxvandaag.nl', 'voedingsacademy.nl/voedingsacademy.nl', 'vitens.com/vitens.com']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://longreads.cbs.nl', 'https://allecijfers.nl', 'https://https://nl.wikipedia.org', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.volkskrant.nl', 'https://www.parool.nl', 'https://www.nrc.nl']</t>
+          <t>['cbs.nl/cbs.nl', 'cbs.nl/cbs.nl', 'longreads.cbs.nl/longreads.cbs.nl', 'nl.wikipedia.org/nl.wikipedia.org', 'allecijfers.nl/allecijfers.nl', 'republiekallochtonie.nl/republiekallochtonie.nl', 'hartvannederland.nl/hartvannederland.nl', 'nu.nl/nu.nl', 'parool.nl/parool.nl', 'nrc.nl/nrc.nl']</t>
         </is>
       </c>
     </row>
@@ -1469,27 +1469,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl/uitpaulineskeuken.nl', 'https://uitpaulineskeuken.nl/', 'https://www.libelle-lekker.be/www.libelle-lekker.be', 'https://www.libelle-lekker.be/', 'https://www.bakkenzoalsoma.nl/www.bakkenzoalsoma.nl', 'https://www.bakkenzoalsoma.nl/', 'www.bakkenzoalsoma.nl', 'https://rutgerbakt.nl/rutgerbakt.nl', 'https://rutgerbakt.nl/', 'rutgerbakt.nl', 'https://www.ah.nl/www.ah.nl', 'https://www.ah.nl/', 'https://broodsmakelijk.nl/broodsmakelijk.nl', 'https://broodsmakelijk.nl/', 'https://broodsmakelijk.nl/broodsmakelijk.nl', 'https://broodsmakelijk.nl/', 'https://www.laurasbakery.nl/www.laurasbakery.nl', 'https://www.laurasbakery.nl/']</t>
+          <t>['uitpaulineskeuken.nl/uitpaulineskeuken.nl', 'rutgerbakt.nl/rutgerbakt.nl', 'broodsmakelijk.nl/broodsmakelijk.nl', 'libelle-lekker.be/libelle-lekker.be', 'bakkenzoalsoma.nl/bakkenzoalsoma.nl', 'ah.nl/ah.nl', 'culy.nl/culy.nl', 'laurasbakery.nl/laurasbakery.nl', 'waterlily-unlimited.nl/waterlily-unlimited.nl']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl/www.mcvoordieren.nl', 'https://www.mcvoordieren.nl/', 'https://www.dierendokters.com/www.dierendokters.com', 'https://www.dierendokters.com/', 'https://www.herdershonden.nl/www.herdershonden.nl', 'https://www.herdershonden.nl/', 'https://www.petplan.nl/www.petplan.nl', 'Petplan.nl', 'https://www.petplan.nl/', 'http://www.hondennamen.nu/www.hondennamen.nu', 'http://www.hondennamen.nu/', 'https://www.honden-plein.nl/www.honden-plein.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl/', 'https://www.hondennamen.nl/www.hondennamen.nl', 'https://www.hondennamen.nl/', 'https://www.royalcanin.nl/www.royalcanin.nl', 'https://www.royalcanin.nl/', 'https://www.mcvoordieren.nl/www.mcvoordieren.nl', 'https://www.mcvoordieren.nl/', 'https://www.hondenpage.com/www.hondenpage.com', 'https://www.hondenpage.com/']</t>
+          <t>['dierendokters.com/dierendokters.com', 'herdershonden.nl/herdershonden.nl', 'petplan.nl/petplan.nl', 'hondennamen.nl/hondennamen.nl', 'hondennamen.nu/hondennamen.nu', 'honden-plein.nl/honden-plein.nl', 'honden-plein.nl/honden-plein.nl', 'mcvoordieren.nl/mcvoordieren.nl', 'royalcanin.nl/royalcanin.nl', 'dierennamen.net/dierennamen.net']</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>['https://www.scholieren.com/www.scholieren.com', 'Scholieren.com', 'https://www.scholieren.com/', 'https://https://nl.wikipedia.org/https://nl.wikipedia.org', 'https://https://nl.wikipedia.org/', 'https://www.scholieren.com/www.scholieren.com', 'Scholieren.com', 'https://www.scholieren.com/', 'Scholieren.com', 'https://www.alletop10lijstjes.nl/www.alletop10lijstjes.nl', 'https://www.alletop10lijstjes.nl/', 'https://https://nl.toluna.com/https://nl.toluna.com', 'https://https://nl.toluna.com/', 'https://https://nl.ripleybelieves.com/https://nl.ripleybelieves.com', 'https://https://nl.ripleybelieves.com/', 'https://www.gezondheidsplein.nl/www.gezondheidsplein.nl', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl/', 'https://www.alleswetenoverosteoporose.nl/www.alleswetenoverosteoporose.nl', 'https://www.alleswetenoverosteoporose.nl/', 'http://www.natuurinformatie.nl/www.natuurinformatie.nl', 'http://www.natuurinformatie.nl/', 'https://www.welingelichtekringen.nl/www.welingelichtekringen.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl/']</t>
+          <t>['nl.wikipedia.org/nl.wikipedia.org', 'scholieren.com/scholieren.com', 'alletop10lijstjes.nl/alletop10lijstjes.nl', 'nl.toluna.com/nl.toluna.com', 'nl.ripleybelieves.com/nl.ripleybelieves.com', 'gezondheidsplein.nl/gezondheidsplein.nl', 'welingelichtekringen.nl/welingelichtekringen.nl', 'alleswetenoverosteoporose.nl/alleswetenoverosteoporose.nl', 'natuurinformatie.nl/natuurinformatie.nl', 'w-tjes.nl/w-tjes.nl']</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['https://www.dokterdokter.nl/www.dokterdokter.nl', 'Dokterdokter.nl', 'https://www.dokterdokter.nl/', 'https://https://nl.wikipedia.org/https://nl.wikipedia.org', 'https://https://nl.wikipedia.org/', 'https://www.wisfaq.nl/www.wisfaq.nl', 'https://www.wisfaq.nl/', 'https://www.facebook.com/www.facebook.com', 'https://www.facebook.com/', 'https://www.startpagina.nl/www.startpagina.nl', 'https://www.startpagina.nl/', 'https://www.dokterdokter.nl/www.dokterdokter.nl', 'Dokterdokter.nl', 'https://www.dokterdokter.nl/', 'https://www.voedingscentrum.nl/www.voedingscentrum.nl', 'https://www.voedingscentrum.nl/', 'https://www.maxvandaag.nl/www.maxvandaag.nl', 'https://www.maxvandaag.nl/', 'https://www.vitens.com/www.vitens.com', 'https://www.vitens.com/', 'https://www.voedingsacademy.nl/www.voedingsacademy.nl', 'https://www.voedingsacademy.nl/', 'http://www.rdzl.nl/www.rdzl.nl', 'http://www.rdzl.nl/']</t>
+          <t>['wisfaq.nl/wisfaq.nl', 'facebook.com/facebook.com', 'nl.wikipedia.org/nl.wikipedia.org', 'dokterdokter.nl/dokterdokter.nl', 'startpagina.nl/startpagina.nl', 'startpagina.nl/startpagina.nl', 'voedingscentrum.nl/voedingscentrum.nl', 'maxvandaag.nl/maxvandaag.nl', 'voedingsacademy.nl/voedingsacademy.nl', 'vitens.com/vitens.com']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl/www.cbs.nl', 'https://www.cbs.nl/', 'https://www.cbs.nl/www.cbs.nl', 'https://www.cbs.nl/', 'https://https://nl.wikipedia.org/https://nl.wikipedia.org', 'https://https://nl.wikipedia.org/', 'https://allecijfers.nl/allecijfers.nl', 'https://allecijfers.nl/', 'http://www.republiekallochtonie.nl/www.republiekallochtonie.nl', 'http://www.republiekallochtonie.nl/', 'https://www.hartvannederland.nl/www.hartvannederland.nl', 'https://www.hartvannederland.nl/', 'https://www.nu.nl/www.nu.nl', 'https://www.nu.nl/', 'https://www.parool.nl/www.parool.nl', 'https://www.parool.nl/', 'https://www.nrc.nl/www.nrc.nl', 'https://www.nrc.nl/', 'https://www.volkskrant.nl/www.volkskrant.nl', 'https://www.volkskrant.nl/']</t>
+          <t>['cbs.nl/cbs.nl', 'cbs.nl/cbs.nl', 'longreads.cbs.nl/longreads.cbs.nl', 'nl.wikipedia.org/nl.wikipedia.org', 'allecijfers.nl/allecijfers.nl', 'republiekallochtonie.nl/republiekallochtonie.nl', 'hartvannederland.nl/hartvannederland.nl', 'nu.nl/nu.nl', 'parool.nl/parool.nl', 'volkskrant.nl/volkskrant.nl']</t>
         </is>
       </c>
     </row>
@@ -1499,27 +1499,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl/uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl/rutgerbakt.nl', 'rutgerbakt.nl', 'https://broodsmakelijk.nl/broodsmakelijk.nl', 'https://www.libelle-lekker.be/www.libelle-lekker.be', 'www.libelle-lekker.be', 'https://www.bakkenzoalsoma.nl/www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://www.ah.nl/www.ah.nl', 'https://www.culy.nl/www.culy.nl', 'Culy.nl', 'www.culy.nl', 'https://www.laurasbakery.nl/www.laurasbakery.nl', 'www.laurasbakery.nl', 'https://www.waterlily-unlimited.nl/www.waterlily-unlimited.nl', 'www.waterlily-unlimited.nl']</t>
+          <t>['uitpaulineskeuken.nl/uitpaulineskeuken.nl', 'rutgerbakt.nl/rutgerbakt.nl', 'broodsmakelijk.nl/broodsmakelijk.nl', 'libelle-lekker.be/libelle-lekker.be', 'bakkenzoalsoma.nl/bakkenzoalsoma.nl', 'ah.nl/ah.nl', 'culy.nl/culy.nl', 'laurasbakery.nl/laurasbakery.nl', 'waterlily-unlimited.nl/waterlily-unlimited.nl']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['https://www.dierendokters.com/www.dierendokters.com', 'https://www.herdershonden.nl/www.herdershonden.nl', 'https://www.petplan.nl/www.petplan.nl', 'Petplan.nl', 'https://www.hondennamen.nl/www.hondennamen.nl', 'http://www.hondennamen.nu/www.hondennamen.nu', 'https://www.honden-plein.nl/www.honden-plein.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl/www.honden-plein.nl', 'https://www.mcvoordieren.nl/www.mcvoordieren.nl', 'https://www.royalcanin.nl/www.royalcanin.nl']</t>
+          <t>['dierendokters.com/dierendokters.com', 'herdershonden.nl/herdershonden.nl', 'petplan.nl/petplan.nl', 'hondennamen.nl/hondennamen.nl', 'hondennamen.nu/hondennamen.nu', 'honden-plein.nl/honden-plein.nl', 'mcvoordieren.nl/mcvoordieren.nl', 'royalcanin.nl/royalcanin.nl', 'hondenpage.com/hondenpage.com', 'dierennamen.net/dierennamen.net']</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>['https://www.scholieren.com/www.scholieren.com', 'Scholieren.com', 'https://https://nl.wikipedia.org/https://nl.wikipedia.org', 'https://www.scholieren.com/www.scholieren.com', 'Scholieren.com', 'Scholieren.com', 'https://www.alletop10lijstjes.nl/www.alletop10lijstjes.nl', 'https://https://nl.toluna.com/https://nl.toluna.com', 'https://https://nl.ripleybelieves.com/https://nl.ripleybelieves.com', 'https://www.gezondheidsplein.nl/www.gezondheidsplein.nl', 'Gezondheidsplein.nl', 'http://www.kosmisch.nl/www.kosmisch.nl', 'Kosmisch.nl', 'https://www.alleswetenoverosteoporose.nl/www.alleswetenoverosteoporose.nl', 'https://www.welingelichtekringen.nl/www.welingelichtekringen.nl', 'Wel.nl', 'http://www.natuurinformatie.nl/www.natuurinformatie.nl']</t>
+          <t>['nl.wikipedia.org/nl.wikipedia.org', 'alletop10lijstjes.nl/alletop10lijstjes.nl', 'nl.toluna.com/nl.toluna.com', 'nl.ripleybelieves.com/nl.ripleybelieves.com', 'gezondheidsplein.nl/gezondheidsplein.nl', 'alleswetenoverosteoporose.nl/alleswetenoverosteoporose.nl', 'welingelichtekringen.nl/welingelichtekringen.nl', 'encyclo.nl/encyclo.nl', 'natuurinformatie.nl/natuurinformatie.nl']</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['https://www.dokterdokter.nl/www.dokterdokter.nl', 'Dokterdokter.nl', 'https://www.wisfaq.nl/www.wisfaq.nl', 'https://www.facebook.com/www.facebook.com', 'https://https://nl.wikipedia.org/https://nl.wikipedia.org', 'https://www.dokterdokter.nl/www.dokterdokter.nl', 'Dokterdokter.nl', 'https://www.startpagina.nl/www.startpagina.nl', 'https://www.startpagina.nl/www.startpagina.nl', 'https://www.voedingscentrum.nl/www.voedingscentrum.nl', 'https://www.maxvandaag.nl/www.maxvandaag.nl', 'https://www.voedingsacademy.nl/www.voedingsacademy.nl', 'https://www.vitens.com/www.vitens.com']</t>
+          <t>['facebook.com/facebook.com', 'wisfaq.nl/wisfaq.nl', 'nl.wikipedia.org/nl.wikipedia.org', 'startpagina.nl/startpagina.nl', 'startpagina.nl/startpagina.nl', 'maxvandaag.nl/maxvandaag.nl', 'voedingscentrum.nl/voedingscentrum.nl', 'vitens.com/vitens.com', 'voedingsacademy.nl/voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl/www.cbs.nl', 'https://www.cbs.nl/www.cbs.nl', 'https://longreads.cbs.nl/longreads.cbs.nl', 'https://https://nl.wikipedia.org/https://nl.wikipedia.org', 'https://allecijfers.nl/allecijfers.nl', 'http://www.republiekallochtonie.nl/www.republiekallochtonie.nl', 'https://www.hartvannederland.nl/www.hartvannederland.nl', 'https://www.nu.nl/www.nu.nl', 'https://www.parool.nl/www.parool.nl', 'https://www.nrc.nl/www.nrc.nl']</t>
+          <t>['cbs.nl/cbs.nl', 'cbs.nl/cbs.nl', 'longreads.cbs.nl/longreads.cbs.nl', 'nl.wikipedia.org/nl.wikipedia.org', 'allecijfers.nl/allecijfers.nl', 'republiekallochtonie.nl/republiekallochtonie.nl', 'hartvannederland.nl/hartvannederland.nl', 'nu.nl/nu.nl', 'nrc.nl/nrc.nl', 'parool.nl/parool.nl']</t>
         </is>
       </c>
     </row>
@@ -1529,27 +1529,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl/uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl/rutgerbakt.nl', 'rutgerbakt.nl', 'https://broodsmakelijk.nl/broodsmakelijk.nl', 'https://www.libelle-lekker.be/www.libelle-lekker.be', 'https://www.bakkenzoalsoma.nl/www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://www.ah.nl/www.ah.nl', 'https://www.culy.nl/www.culy.nl', 'Culy.nl', 'www.culy.nl', 'https://www.laurasbakery.nl/www.laurasbakery.nl', 'www.laurasbakery.nl', 'https://www.waterlily-unlimited.nl/www.waterlily-unlimited.nl', 'www.waterlily-unlimited.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'broodsmakelijk.nl', 'libelle-lekker.be', 'rutgerbakt.nl', 'bakkenzoalsoma.nl', 'ah.nl', 'culy.nl', 'laurasbakery.nl', 'smulweb.nl']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['https://www.dierendokters.com/www.dierendokters.com', 'https://www.herdershonden.nl/www.herdershonden.nl', 'https://www.petplan.nl/www.petplan.nl', 'Petplan.nl', 'https://www.hondennamen.nl/www.hondennamen.nl', 'http://www.hondennamen.nu/www.hondennamen.nu', 'https://www.honden-plein.nl/www.honden-plein.nl', 'Honden-plein.nl', 'https://www.honden-plein.nl/www.honden-plein.nl', 'https://www.mcvoordieren.nl/www.mcvoordieren.nl', 'https://www.royalcanin.nl/www.royalcanin.nl']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'petplan.nl', 'hondennamen.nl', 'hondennamen.nu', 'honden-plein.nl', 'royalcanin.nl', 'hondenpage.com', 'dierennamen.net']</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>['https://www.scholieren.com/www.scholieren.com', 'Scholieren.com', 'https://https://nl.wikipedia.org/https://nl.wikipedia.org', 'https://www.scholieren.com/www.scholieren.com', 'Scholieren.com', 'Scholieren.com', 'https://www.alletop10lijstjes.nl/www.alletop10lijstjes.nl', 'https://https://nl.toluna.com/https://nl.toluna.com', 'https://https://nl.ripleybelieves.com/https://nl.ripleybelieves.com', 'https://www.gezondheidsplein.nl/www.gezondheidsplein.nl', 'Gezondheidsplein.nl', 'https://www.welingelichtekringen.nl/www.welingelichtekringen.nl', 'Wel.nl', 'https://www.alleswetenoverosteoporose.nl/www.alleswetenoverosteoporose.nl', 'http://www.natuurinformatie.nl/www.natuurinformatie.nl', 'https://www.w-tjes.nl/www.w-tjes.nl']</t>
+          <t>['nl.wikipedia.org', 'alletop10lijstjes.nl', 'nl.toluna.com', 'nl.ripleybelieves.com', 'gezondheidsplein.nl', 'welingelichtekringen.nl', 'alleswetenoverosteoporose.nl', 'natuurinformatie.nl', 'w-tjes.nl']</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['https://www.dokterdokter.nl/www.dokterdokter.nl', 'Dokterdokter.nl', 'https://www.wisfaq.nl/www.wisfaq.nl', 'https://www.facebook.com/www.facebook.com', 'https://https://nl.wikipedia.org/https://nl.wikipedia.org', 'https://www.dokterdokter.nl/www.dokterdokter.nl', 'Dokterdokter.nl', 'https://www.startpagina.nl/www.startpagina.nl', 'https://www.startpagina.nl/www.startpagina.nl', 'https://www.voedingscentrum.nl/www.voedingscentrum.nl', 'https://www.maxvandaag.nl/www.maxvandaag.nl', 'https://www.voedingsacademy.nl/www.voedingsacademy.nl', 'https://www.vitens.com/www.vitens.com']</t>
+          <t>['wisfaq.nl', 'facebook.com', 'nl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'voedingsacademy.nl', 'vitens.com']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl/www.cbs.nl', 'https://www.cbs.nl/www.cbs.nl', 'https://longreads.cbs.nl/longreads.cbs.nl', 'https://https://nl.wikipedia.org/https://nl.wikipedia.org', 'https://allecijfers.nl/allecijfers.nl', 'http://www.republiekallochtonie.nl/www.republiekallochtonie.nl', 'https://www.hartvannederland.nl/www.hartvannederland.nl', 'https://www.nu.nl/www.nu.nl', 'https://www.parool.nl/www.parool.nl', 'https://www.volkskrant.nl/www.volkskrant.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'nrc.nl', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl', 'volkskrant.nl']</t>
         </is>
       </c>
     </row>
@@ -1559,27 +1559,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl/uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://rutgerbakt.nl/rutgerbakt.nl', 'rutgerbakt.nl', 'https://broodsmakelijk.nl/broodsmakelijk.nl', 'https://www.libelle-lekker.be/www.libelle-lekker.be', 'https://www.bakkenzoalsoma.nl/www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://www.ah.nl/www.ah.nl', 'https://www.culy.nl/www.culy.nl', 'Culy.nl', 'www.culy.nl', 'https://www.laurasbakery.nl/www.laurasbakery.nl', 'www.laurasbakery.nl', 'https://www.waterlily-unlimited.nl/www.waterlily-unlimited.nl', 'www.waterlily-unlimited.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'bakkenzoalsoma.nl', 'rutgerbakt.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'ah.nl', 'recepten.tips', 'laurasbakery.nl']</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['https://www.dierendokters.com/www.dierendokters.com', 'https://www.herdershonden.nl/www.herdershonden.nl', 'https://www.petplan.nl/www.petplan.nl', 'Petplan.nl', 'https://www.hondennamen.nl/www.hondennamen.nl', 'http://www.hondennamen.nu/www.hondennamen.nu', 'https://www.honden-plein.nl/www.honden-plein.nl', 'Honden-plein.nl', 'https://www.mcvoordieren.nl/www.mcvoordieren.nl', 'https://www.royalcanin.nl/www.royalcanin.nl', 'https://www.hondenpage.com/www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'petplan.nl', 'hondennamen.nu', 'honden-plein.nl', 'hondennamen.nl', 'royalcanin.nl', 'dierennamen.net', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>['https://www.scholieren.com/www.scholieren.com', 'Scholieren.com', 'https://https://nl.wikipedia.org/https://nl.wikipedia.org', 'https://www.alletop10lijstjes.nl/www.alletop10lijstjes.nl', 'https://https://nl.toluna.com/https://nl.toluna.com', 'https://https://nl.ripleybelieves.com/https://nl.ripleybelieves.com', 'https://www.gezondheidsplein.nl/www.gezondheidsplein.nl', 'Gezondheidsplein.nl', 'https://www.alleswetenoverosteoporose.nl/www.alleswetenoverosteoporose.nl', 'https://www.welingelichtekringen.nl/www.welingelichtekringen.nl', 'Wel.nl', 'https://www.encyclo.nl/www.encyclo.nl', 'http://www.natuurinformatie.nl/www.natuurinformatie.nl']</t>
+          <t>['nl.wikipedia.org', 'nl.toluna.com', 'alletop10lijstjes.nl', 'nl.ripleybelieves.com', 'gezondheidsplein.nl', 'alleswetenoverosteoporose.nl', 'natuurinformatie.nl', 'welingelichtekringen.nl']</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['https://www.dokterdokter.nl/www.dokterdokter.nl', 'Dokterdokter.nl', 'https://www.facebook.com/www.facebook.com', 'https://www.wisfaq.nl/www.wisfaq.nl', 'https://https://nl.wikipedia.org/https://nl.wikipedia.org', 'https://www.startpagina.nl/www.startpagina.nl', 'https://www.startpagina.nl/www.startpagina.nl', 'https://www.maxvandaag.nl/www.maxvandaag.nl', 'https://www.voedingscentrum.nl/www.voedingscentrum.nl', 'https://www.vitens.com/www.vitens.com', 'https://www.voedingsacademy.nl/www.voedingsacademy.nl']</t>
+          <t>['nl.wikipedia.org', 'wisfaq.nl', 'facebook.com', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl', 'mooiemoestuin.nl']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl/www.cbs.nl', 'https://www.cbs.nl/www.cbs.nl', 'https://longreads.cbs.nl/longreads.cbs.nl', 'https://https://nl.wikipedia.org/https://nl.wikipedia.org', 'https://allecijfers.nl/allecijfers.nl', 'http://www.republiekallochtonie.nl/www.republiekallochtonie.nl', 'https://www.hartvannederland.nl/www.hartvannederland.nl', 'https://www.nu.nl/www.nu.nl', 'https://www.nrc.nl/www.nrc.nl', 'https://www.parool.nl/www.parool.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'rtlnieuws.nl', 'republiekallochtonie.nl', 'nrc.nl', 'hartvannederland.nl', 'nu.nl']</t>
         </is>
       </c>
     </row>
@@ -1589,27 +1589,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['https://uitpaulineskeuken.nl', 'uitpaulineskeuken.nl', 'https://broodsmakelijk.nl', 'https://www.libelle-lekker.be', 'https://rutgerbakt.nl', 'rutgerbakt.nl', 'https://www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'https://www.ah.nl', 'Culy.nl', 'https://www.culy.nl', 'www.culy.nl', 'https://www.laurasbakery.nl', 'www.laurasbakery.nl', 'Smulweb.nl', 'https://www.smulweb.nl', 'www.smulweb.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'broodsmakelijk.nl', 'libelle-lekker.be', 'rutgerbakt.nl', 'bakkenzoalsoma.nl', 'ah.nl', 'smulweb.nl', 'waterlily-unlimited.nl', 'culy.nl']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['https://www.mcvoordieren.nl', 'https://www.dierendokters.com', 'https://www.herdershonden.nl', 'Petplan.nl', 'https://www.petplan.nl', 'https://www.hondennamen.nl', 'www.hondennamen.nu', 'Honden-plein.nl', 'https://www.honden-plein.nl', 'https://www.royalcanin.nl', 'https://www.hondenpage.com']</t>
+          <t>['uitpaulineskeuken.nl', 'broodsmakelijk.nl', 'libelle-lekker.be', 'rutgerbakt.nl', 'bakkenzoalsoma.nl', 'ah.nl', 'smulweb.nl', 'waterlily-unlimited.nl', 'culy.nl']</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>['Scholieren.com', 'https://www.scholieren.com', 'https://https://nl.wikipedia.org', 'https://www.alletop10lijstjes.nl', 'https://https://nl.toluna.com', 'https://https://nl.ripleybelieves.com', 'Gezondheidsplein.nl', 'https://www.gezondheidsplein.nl', 'Wel.nl', 'https://www.welingelichtekringen.nl', 'https://www.alleswetenoverosteoporose.nl', 'www.natuurinformatie.nl', 'https://www.w-tjes.nl']</t>
+          <t>['nl.wikipedia.org', 'alletop10lijstjes.nl', 'nl.toluna.com', 'nl.ripleybelieves.com', 'gezondheidsplein.nl', 'welingelichtekringen.nl', 'alleswetenoverosteoporose.nl', 'natuurinformatie.nl', 'w-tjes.nl']</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['Dokterdokter.nl', 'https://www.dokterdokter.nl', 'https://www.wisfaq.nl', 'https://www.facebook.com', 'https://https://nl.wikipedia.org', 'https://www.startpagina.nl', 'https://www.startpagina.nl', 'https://www.maxvandaag.nl', 'https://www.voedingscentrum.nl', 'https://www.voedingsacademy.nl', 'https://www.vitens.com']</t>
+          <t>['facebook.com', 'wisfaq.nl', 'nl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'voedingsacademy.nl', 'vitens.com']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>['https://www.cbs.nl', 'https://www.cbs.nl', 'https://longreads.cbs.nl', 'https://https://nl.wikipedia.org', 'https://allecijfers.nl', 'https://www.nrc.nl', 'www.republiekallochtonie.nl', 'https://www.hartvannederland.nl', 'https://www.nu.nl', 'https://www.volkskrant.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'rtlnieuws.nl', 'nrc.nl', 'republiekallochtonie.nl', 'hartvannederland.nl', 'nu.nl']</t>
         </is>
       </c>
     </row>
@@ -1619,27 +1619,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['uitpaulineskeuken.nl', 'www.libelle-lekker.be', 'www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'www.ah.nl', 'www.laurasbakery.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'bakkenzoalsoma.nl', 'rutgerbakt.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'ah.nl', 'recepten.tips', 'waterlily-unlimited.nl']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['www.mcvoordieren.nl', 'www.dierendokters.com', 'www.herdershonden.nl', 'www.petplan.nl', 'Petplan.nl', 'www.hondennamen.nu', 'www.honden-plein.nl', 'Honden-plein.nl', 'www.hondennamen.nl', 'www.royalcanin.nl', 'www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'petplan.nl', 'hondennamen.nu', 'honden-plein.nl', 'hondennamen.nl', 'mcvoordieren.nl', 'dierennamen.net', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>['www.scholieren.com', 'Scholieren.com', 'https://nl.wikipedia.org', 'https://nl.toluna.com', 'www.alletop10lijstjes.nl', 'https://nl.ripleybelieves.com', 'www.gezondheidsplein.nl', 'Gezondheidsplein.nl', 'www.alleswetenoverosteoporose.nl', 'www.natuurinformatie.nl', 'www.welingelichtekringen.nl', 'Wel.nl']</t>
+          <t>['nl.wikipedia.org', 'alletop10lijstjes.nl', 'nl.ripleybelieves.com', 'nl.toluna.com', 'gezondheidsplein.nl', 'alleswetenoverosteoporose.nl', 'natuurinformatie.nl', 'welingelichtekringen.nl']</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['www.dokterdokter.nl', 'Dokterdokter.nl', 'https://nl.wikipedia.org', 'www.wisfaq.nl', 'www.facebook.com', 'www.startpagina.nl', 'www.voedingscentrum.nl', 'www.maxvandaag.nl', 'www.vitens.com', 'www.voedingsacademy.nl', 'www.mooiemoestuin.nl']</t>
+          <t>['nl.wikipedia.org', 'wisfaq.nl', 'facebook.com', 'startpagina.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'vitens.com', 'voedingsacademy.nl', 'rdzl.nl']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>['www.cbs.nl', 'www.cbs.nl', 'longreads.cbs.nl', 'https://nl.wikipedia.org', 'allecijfers.nl', 'www.rtlnieuws.nl', 'www.republiekallochtonie.nl', 'www.nrc.nl', 'www.hartvannederland.nl', 'www.nu.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'rtlnieuws.nl', 'republiekallochtonie.nl', 'nrc.nl', 'hartvannederland.nl', 'nu.nl']</t>
         </is>
       </c>
     </row>
@@ -1649,27 +1649,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['uitpaulineskeuken.nl', 'www.libelle-lekker.be', 'www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'www.ah.nl', 'www.waterlily-unlimited.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'bakkenzoalsoma.nl', 'rutgerbakt.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'ah.nl', 'recepten.tips', 'waterlily-unlimited.nl']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['www.royalcanin.nl', 'www.dierendokters.com', 'www.herdershonden.nl', 'www.petplan.nl', 'Petplan.nl', 'www.hondennamen.nu', 'www.honden-plein.nl', 'Honden-plein.nl', 'www.hondennamen.nl', 'www.mcvoordieren.nl', 'www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'herdershonden.nl', 'petplan.nl', 'hondennamen.nu', 'honden-plein.nl', 'hondennamen.nl', 'mcvoordieren.nl', 'dierennamen.net', 'hondenpage.com']</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>['www.scholieren.com', 'Scholieren.com', 'https://nl.wikipedia.org', 'www.alletop10lijstjes.nl', 'https://nl.ripleybelieves.com', 'https://nl.toluna.com', 'www.gezondheidsplein.nl', 'Gezondheidsplein.nl', 'www.alleswetenoverosteoporose.nl', 'www.natuurinformatie.nl', 'www.welingelichtekringen.nl', 'Wel.nl']</t>
+          <t>['nl.wikipedia.org', 'alletop10lijstjes.nl', 'nl.ripleybelieves.com', 'nl.toluna.com', 'gezondheidsplein.nl', 'alleswetenoverosteoporose.nl', 'natuurinformatie.nl', 'welingelichtekringen.nl']</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['www.dokterdokter.nl', 'Dokterdokter.nl', 'https://nl.wikipedia.org', 'www.wisfaq.nl', 'www.facebook.com', 'www.startpagina.nl', 'www.maxvandaag.nl', 'www.voedingscentrum.nl', 'www.vitens.com', 'www.voedingsacademy.nl', 'www.rdzl.nl']</t>
+          <t>['nl.wikipedia.org', 'wisfaq.nl', 'facebook.com', 'startpagina.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'vitens.com', 'voedingsacademy.nl', 'rdzl.nl']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['www.cbs.nl', 'www.cbs.nl', 'longreads.cbs.nl', 'https://nl.wikipedia.org', 'allecijfers.nl', 'www.rtlnieuws.nl', 'www.republiekallochtonie.nl', 'www.nrc.nl', 'www.hartvannederland.nl', 'www.nu.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'rtlnieuws.nl', 'republiekallochtonie.nl', 'nrc.nl', 'hartvannederland.nl', 'nu.nl']</t>
         </is>
       </c>
     </row>
@@ -1679,27 +1679,657 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['uitpaulineskeuken.nl', 'www.libelle-lekker.be', 'www.bakkenzoalsoma.nl', 'www.bakkenzoalsoma.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'www.ah.nl', 'www.waterlily-unlimited.nl']</t>
+          <t>['uitpaulineskeuken.nl', 'rutgerbakt.nl', 'libelle-lekker.be', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'laurasbakery.nl', 'ah.nl', 'culy.nl', 'waterlily-unlimited.nl']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['www.royalcanin.nl', 'www.dierendokters.com', 'www.herdershonden.nl', 'www.petplan.nl', 'Petplan.nl', 'www.hondennamen.nu', 'www.honden-plein.nl', 'Honden-plein.nl', 'www.hondennamen.nl', 'www.mcvoordieren.nl', 'www.hondenpage.com']</t>
+          <t>['dierendokters.com', 'petplan.nl', 'herdershonden.nl', 'hondennamen.nu', 'hondennamen.nl', 'hondennamen.nl', 'honden-plein.nl', 'mcvoordieren.nl', 'royalcanin.nl', 'dierennamen.net']</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>['www.scholieren.com', 'Scholieren.com', 'https://nl.wikipedia.org', 'www.alletop10lijstjes.nl', 'https://nl.ripleybelieves.com', 'https://nl.toluna.com', 'www.gezondheidsplein.nl', 'Gezondheidsplein.nl', 'www.alleswetenoverosteoporose.nl', 'www.natuurinformatie.nl', 'www.welingelichtekringen.nl', 'Wel.nl']</t>
+          <t>['nl.wikipedia.org', 'alletop10lijstjes.nl', 'nl.toluna.com', 'nl.ripleybelieves.com', 'gezondheidsplein.nl', 'welingelichtekringen.nl', 'alleswetenoverosteoporose.nl', 'natuurinformatie.nl', 'maken.wikiwijs.nl']</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['www.dokterdokter.nl', 'Dokterdokter.nl', 'https://nl.wikipedia.org', 'www.wisfaq.nl', 'www.facebook.com', 'www.startpagina.nl', 'www.maxvandaag.nl', 'www.voedingscentrum.nl', 'www.vitens.com', 'www.voedingsacademy.nl', 'www.rdzl.nl']</t>
+          <t>['wisfaq.nl', 'facebook.com', 'nl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'vitens.com', 'voedingsacademy.nl']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['www.cbs.nl', 'www.cbs.nl', 'longreads.cbs.nl', 'https://nl.wikipedia.org', 'allecijfers.nl', 'www.rtlnieuws.nl', 'www.republiekallochtonie.nl', 'www.nrc.nl', 'www.hartvannederland.nl', 'www.nu.nl']</t>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'rtlnieuws.nl', 'nrc.nl', 'nrc.nl', 'republiekallochtonie.nl', 'hartvannederland.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'laurasbakery.nl', 'bakkenzoalsoma.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'recepten.tips']</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['dierendokters.com', 'herdershonden.nl', 'honden-plein.nl', 'hondennamen.nu', 'hondennamen.nl', 'hondennamen.nl', 'petplan.nl', 'royalcanin.nl', 'mcvoordieren.nl', 'dierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['nl.wikipedia.org', 'scholieren.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'schooltv.nl', 'nl.ripleybelieves.com', 'encyclo.nl', 'welingelichtekringen.nl', 'gezondheidsplein.nl', 'natuurinformatie.nl']</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['facebook.com', 'nl.wikipedia.org', 'wisfaq.nl', 'dokterdokter.nl', 'startpagina.nl', 'startpagina.nl', 'maxvandaag.nl', 'voedingscentrum.nl', 'voedingsacademy.nl', 'vitens.com']</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['cbs.nl', 'cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'rtlnieuws.nl', 'nrc.nl', 'nrc.nl', 'republiekallochtonie.nl', 'hartvannederland.nl', 'parool.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'libelle-lekker.be', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'laurasbakery.nl', 'waterlily-unlimited.nl']</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>['dierendokters.com', 'herdershonden.nl', 'hondennamen.nl', 'petplan.nl', 'honden-plein.nl', 'hondennamen.nu', 'hondennamen.nu', 'mcvoordieren.nl', 'royalcanin.nl', 'dierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['nl.wikipedia.org', 'alletop10lijstjes.nl', 'nl.toluna.com', 'nl.ripleybelieves.com', 'gezondheidsplein.nl', 'natuurinformatie.nl', 'maken.wikiwijs.nl', 'kosmisch.nl', 'alleswetenoverosteoporose.nl']</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['wisfaq.nl', 'facebook.com', 'startpagina.nl', 'nl.wikipedia.org', 'voedingscentrum.nl', 'maxvandaag.nl', 'rdzl.nl', 'voedingsacademy.nl', 'vitens.com']</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'nrc.nl', 'hartvannederland.nl', 'rtlnieuws.nl', 'republiekallochtonie.nl', 'volkskrant.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'libelle-lekker.be', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'laurasbakery.nl', 'waterlily-unlimited.nl']</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['dierendokters.com', 'herdershonden.nl', 'petplan.nl', 'hondennamen.nl', 'hondennamen.nu', 'honden-plein.nl', 'honden-plein.nl', 'mcvoordieren.nl', 'royalcanin.nl', 'dierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['nl.wikipedia.org', 'alletop10lijstjes.nl', 'nl.toluna.com', 'nl.ripleybelieves.com', 'gezondheidsplein.nl', 'natuurinformatie.nl', 'maken.wikiwijs.nl', 'alleswetenoverosteoporose.nl', 'kosmisch.nl']</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>['wisfaq.nl', 'facebook.com', 'startpagina.nl', 'nl.wikipedia.org', 'voedingscentrum.nl', 'maxvandaag.nl', 'rdzl.nl', 'voedingsacademy.nl', 'vitens.com']</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'nrc.nl', 'hartvannederland.nl', 'republiekallochtonie.nl', 'rtlnieuws.nl', 'volkskrant.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'bakkenzoalsoma.nl', 'broodsmakelijk.nl', 'laurasbakery.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'ah.nl', 'recepten.tips']</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['dierendokters.com', 'petplan.nl', 'hondennamen.nu', 'honden-plein.nl', 'hondennamen.nl', 'hondennamen.nl', 'mcvoordieren.nl', 'royalcanin.nl', 'dierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['nl.wikipedia.org', 'nl.toluna.com', 'alletop10lijstjes.nl', 'nl.ripleybelieves.com', 'gezondheidsplein.nl', 'natuurinformatie.nl', 'maken.wikiwijs.nl', 'alleswetenoverosteoporose.nl', 'kosmisch.nl']</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['nl.wikipedia.org', 'wisfaq.nl', 'facebook.com', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl', 'mooiemoestuin.nl']</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'nrc.nl', 'republiekallochtonie.nl', 'rtlnieuws.nl', 'hartvannederland.nl', 'volkskrant.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>['libelle-lekker.be', 'uitpaulineskeuken.nl', 'recepten.tips', 'broodsmakelijk.nl', 'bakkenzoalsoma.nl', 'dagelijksekost.een.be', 'avevewinkels.be', 'rutgerbakt.nl', 'rutgerbakt.nl']</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>['dierendokters.com', 'hondennamen.nu', 'dierennamen.net', 'hondennamen.nl', 'honden-plein.nl', 'petplan.nl', 'mcvoordieren.nl', 'royalcanin.nl', 'hondenpage.com']</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>['nl.wikipedia.org', 'nl.ripleybelieves.com', 'nl.toluna.com', 'alletop10lijstjes.nl', 'gezondheidsplein.nl', 'natuurinformatie.nl', 'startpagina.nl', 'nl.quora.com']</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>['nl.wikipedia.org', 'wisfaq.nl', 'facebook.com', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'rdzl.nl', 'voedingsacademy.nl', 'vitens.com']</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>['cbs.nl', 'cbs.nl', 'cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'nrc.nl', 'nrc.nl', 'republiekallochtonie.nl', 'rtlnieuws.nl', 'hartvannederland.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'rutgerbakt.nl', 'bakkenzoalsoma.nl', 'broodsmakelijk.nl', 'broodsmakelijk.nl', 'ah.nl', 'laurasbakery.nl', 'laurasbakery.nl']</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['dierendokters.com', 'petplan.nl', 'hondennamen.nu', 'hondennamen.nl', 'hondennamen.nl', 'honden-plein.nl', 'honden-plein.nl', 'mcvoordieren.nl', 'royalcanin.nl']</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>['dierendokters.com', 'petplan.nl', 'hondennamen.nu', 'hondennamen.nl', 'hondennamen.nl', 'honden-plein.nl', 'honden-plein.nl', 'mcvoordieren.nl', 'royalcanin.nl']</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['dierendokters.com', 'petplan.nl', 'hondennamen.nu', 'hondennamen.nl', 'hondennamen.nl', 'honden-plein.nl', 'honden-plein.nl', 'mcvoordieren.nl', 'royalcanin.nl']</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'nrc.nl', 'volkskrant.nl', 'hartvannederland.nl', 'rtlnieuws.nl', 'republiekallochtonie.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'broodsmakelijk.nl', 'rutgerbakt.nl', 'bakkenzoalsoma.nl', 'ah.nl', 'laurasbakery.nl', 'laurasbakery.nl', 'patesserie.com']</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['dierendokters.com', 'petplan.nl', 'hondennamen.nl', 'honden-plein.nl', 'hondennamen.nu', 'hondennamen.nu', 'mcvoordieren.nl', 'royalcanin.nl', 'dierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>['nl.wikipedia.org', 'alletop10lijstjes.nl', 'nl.toluna.com', 'nl.ripleybelieves.com', 'gezondheidsplein.nl', 'natuurinformatie.nl', 'maken.wikiwijs.nl', 'ofa-bamberg.com', 'welingelichtekringen.nl']</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>['wisfaq.nl', 'facebook.com', 'nl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'rdzl.nl', 'vitens.com']</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'nl.wikipedia.org', 'allecijfers.nl', 'nrc.nl', 'rtlnieuws.nl', 'volkskrant.nl', 'republiekallochtonie.nl', 'hartvannederland.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'Lekkerlibelle-lekker.be', 'Baktrutgerbakt.nl', 'Broodsmakelijkbroodsmakelijk.nl', 'Omabakkenzoalsoma.nl', 'Heijnah.nl', 'Bakerylaurasbakery.nl', 'Bakerylaurasbakery.nl', 'patesserie.com']</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>['DierenDoktersdierendokters.com', '2020!herdershonden.nl', 'Petplan.nlpetplan.nl', 'hondennamen.nl', 'Honden-plein.nlhonden-plein.nl', 'honden-plein.nl', 'hond.hondennamen.nu', 'Dierenmcvoordieren.nl', 'Caninroyalcanin.nl']</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>['Wikipedianl.wikipedia.org', 'Alletop10lijstjesalletop10lijstjes.nl', 'Tolunanl.toluna.com', '2020nl.ripleybelieves.com', 'Gezondheidsplein.nlgezondheidsplein.nl', 'Natuurinformatienatuurinformatie.nl', 'Wel.nlwelingelichtekringen.nl', 'Kosmisch.nlkosmisch.nl', 'Bambergofa-bamberg.com']</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>['facebook.com', 'wiskundeonderwijswisfaq.nl', 'Wikipedianl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'Voedingscentrumvoedingscentrum.nl', 'gezondmaxvandaag.nl', 'voedingsacademy.nl', 'Vitensvitens.com']</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['CBScbs.nl', 'CBScbs.nl', 'longreads.cbs.nl', 'Wikipedianl.wikipedia.org', 'allecijfers.nl', 'NRCnrc.nl', 'volkskrant.nl', 'rtlnieuws.nl', 'cijfersrepubliekallochtonie.nl', 'hartvannederland.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'Lekkerlibelle-lekker.be', 'Baktrutgerbakt.nl', 'Broodsmakelijkbroodsmakelijk.nl', 'Omabakkenzoalsoma.nl', 'Heijnah.nl', 'Bakerylaurasbakery.nl', 'Bakerylaurasbakery.nl', 'patesserie.com']</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>['DierenDoktersdierendokters.com', 'Petplan.nlpetplan.nl', 'hondennamen.nl', 'hond.hondennamen.nu', 'Honden-plein.nlhonden-plein.nl', 'honden-plein.nl', 'Dierenmcvoordieren.nl', 'Caninroyalcanin.nl', 'Dierennamendierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>['Wikipedianl.wikipedia.org', 'Alletop10lijstjesalletop10lijstjes.nl', 'Tolunanl.toluna.com', '2020nl.ripleybelieves.com', 'Gezondheidsplein.nlgezondheidsplein.nl', 'Natuurinformatienatuurinformatie.nl', 'Kosmisch.nlkosmisch.nl', 'Wel.nlwelingelichtekringen.nl', 'Encycloencyclo.nl']</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>['wiskundeonderwijswisfaq.nl', 'facebook.com', 'Wikipedianl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'Voedingscentrumvoedingscentrum.nl', 'gezondmaxvandaag.nl', 'Vitensvitens.com', 'voedingsacademy.nl']</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['CBScbs.nl', 'CBScbs.nl', 'longreads.cbs.nl', 'Wikipedianl.wikipedia.org', 'allecijfers.nl', 'NRCnrc.nl', 'volkskrant.nl', 'rtlnieuws.nl', 'cijfersrepubliekallochtonie.nl', 'hartvannederland.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'Lekkerlibelle-lekker.be', 'Baktrutgerbakt.nl', 'Broodsmakelijkbroodsmakelijk.nl', 'Omabakkenzoalsoma.nl', 'Heijnah.nl', 'Bakerylaurasbakery.nl', 'Bakerylaurasbakery.nl', 'Culy.nlculy.nl']</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>['DierenDoktersdierendokters.com', 'Petplan.nlpetplan.nl', 'hondennamen.nl', 'hond.hondennamen.nu', 'Honden-plein.nlhonden-plein.nl', 'honden-plein.nl', 'Dierenmcvoordieren.nl', 'Caninroyalcanin.nl', 'Dierennamendierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>['Wikipedianl.wikipedia.org', 'Alletop10lijstjesalletop10lijstjes.nl', 'Tolunanl.toluna.com', '2020nl.ripleybelieves.com', 'Gezondheidsplein.nlgezondheidsplein.nl', 'Natuurinformatienatuurinformatie.nl', 'Wel.nlwelingelichtekringen.nl', 'Bambergofa-bamberg.com', 'Encycloencyclo.nl']</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>['wiskundeonderwijswisfaq.nl', 'facebook.com', 'Wikipedianl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'Voedingscentrumvoedingscentrum.nl', 'gezondmaxvandaag.nl', 'Vitensvitens.com', 'voedingsacademy.nl']</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['CBScbs.nl', 'CBScbs.nl', 'longreads.cbs.nl', 'Wikipedianl.wikipedia.org', 'allecijfers.nl', 'NRCnrc.nl', 'volkskrant.nl', 'rtlnieuws.nl', 'hartvannederland.nl', 'cijfersrepubliekallochtonie.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'Lekkerlibelle-lekker.be', 'Baktrutgerbakt.nl', 'Broodsmakelijkbroodsmakelijk.nl', 'Omabakkenzoalsoma.nl', 'Heijnah.nl', 'Bakerylaurasbakery.nl', 'Bakerylaurasbakery.nl', 'Culy.nlculy.nl']</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>['DierenDoktersdierendokters.com', '2020!herdershonden.nl', 'Petplan.nlpetplan.nl', 'hondennamen.nl', 'Honden-plein.nlhonden-plein.nl', 'honden-plein.nl', 'hond.hondennamen.nu', 'Dierenmcvoordieren.nl', 'Caninroyalcanin.nl']</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>['Wikipedianl.wikipedia.org', 'Alletop10lijstjesalletop10lijstjes.nl', 'Tolunanl.toluna.com', '2020nl.ripleybelieves.com', 'Gezondheidsplein.nlgezondheidsplein.nl', 'Natuurinformatienatuurinformatie.nl', 'Wel.nlwelingelichtekringen.nl', 'competicionesdemotos.com', 'Kosmisch.nlkosmisch.nl']</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['wiskundeonderwijswisfaq.nl', 'facebook.com', 'Wikipedianl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'Voedingscentrumvoedingscentrum.nl', 'gezondmaxvandaag.nl', 'Vitensvitens.com', 'voedingsacademy.nl']</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['CBScbs.nl', 'CBScbs.nl', 'longreads.cbs.nl', 'Wikipedianl.wikipedia.org', 'allecijfers.nl', 'NRCnrc.nl', 'volkskrant.nl', 'rtlnieuws.nl', 'hartvannederland.nl', 'cijfersrepubliekallochtonie.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'laurasbakery.nl', 'broodsmakelijk.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'bakkenzoalsoma.nl', 'ah.nl', 'culy.nl']</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>['dierendokters.com', 'herdershonden.nl', 'petplan.nl', 'hondennamen.nl', 'hondennamen.nu', 'mcvoordieren.nl', 'honden-plein.nl', 'honden-plein.nl', 'royalcanin.nl', 'dierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>['scholieren.com', 'alletop10lijstjes.nl', 'nl.toluna.com', 'nl.ripleybelieves.com', 'gezondheidsplein.nl', 'natuurinformatie.nl', 'competicionesdemotos.com', 'welingelichtekringen.nl', 'kosmisch.nl']</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>['wisfaq.nl', 'facebook.com', 'nl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'voedingsacademy.nl']</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>['cbs.nl', 'cbs.nl', 'cbs.nl', 'nl.wikipedia.org', 'nrc.nl', 'nrc.nl', 'allecijfers.nl', 'volkskrant.nl', 'republiekallochtonie.nl', 'rtlnieuws.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'libelle-lekker.be', 'laurasbakery.nl', 'broodsmakelijk.nl', 'rutgerbakt.nl', 'rutgerbakt.nl', 'bakkenzoalsoma.nl', 'ah.nl', 'culy.nl']</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>['dierendokters.com', 'herdershonden.nl', 'petplan.nl', 'hondennamen.nl', 'mcvoordieren.nl', 'hondennamen.nu', 'honden-plein.nl', 'honden-plein.nl', 'royalcanin.nl', 'dierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>['alletop10lijstjes.nl', 'scholieren.com', 'nl.toluna.com', 'nl.ripleybelieves.com', 'gezondheidsplein.nl', 'natuurinformatie.nl', 'welingelichtekringen.nl', 'kosmisch.nl', 'competicionesdemotos.com']</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['wisfaq.nl', 'facebook.com', 'nl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'voedingscentrum.nl', 'maxvandaag.nl', 'vitens.com', 'rdzl.nl']</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>['cbs.nl', 'cbs.nl', 'longreads.cbs.nl', 'cbs.nl', 'nl.wikipedia.org', 'nrc.nl', 'allecijfers.nl', 'rtlnieuws.nl', 'volkskrant.nl', 'republiekallochtonie.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'Lekkerlibelle-lekker.be', 'Bakerylaurasbakery.nl', 'Broodsmakelijkbroodsmakelijk.nl', 'Baktrutgerbakt.nl', 'Baktrutgerbakt.nl', 'Omabakkenzoalsoma.nl', 'Heijnah.nl', 'Culy.nlculy.nl']</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>['DierenDoktersdierendokters.com', '2020!herdershonden.nl', 'Petplan.nlpetplan.nl', 'hondennamen.nl', 'Dierenmcvoordieren.nl', 'hond.hondennamen.nu', 'Honden-plein.nlhonden-plein.nl', 'honden-plein.nl', 'Caninroyalcanin.nl', 'Dierennamendierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>['Alletop10lijstjesalletop10lijstjes.nl', 'Scholieren.comscholieren.com', 'Tolunanl.toluna.com', '2020nl.ripleybelieves.com', 'Gezondheidsplein.nlgezondheidsplein.nl', 'Natuurinformatienatuurinformatie.nl', 'Wel.nlwelingelichtekringen.nl', 'Kosmisch.nlkosmisch.nl', 'competicionesdemotos.com']</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>['wiskundeonderwijswisfaq.nl', 'facebook.com', 'Wikipedianl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'Voedingscentrumvoedingscentrum.nl', 'gezondmaxvandaag.nl', 'uitlegrdzl.nl', 'Vitensvitens.com']</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>['CBScbs.nl', 'CBScbs.nl', 'CBScbs.nl', 'Wikipedianl.wikipedia.org', 'NRCnrc.nl', 'allecijfers.nl', 'cijfersrepubliekallochtonie.nl', 'volkskrant.nl', 'rtlnieuws.nl', 'hartvannederland.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'Lekkerlibelle-lekker.be', 'Bakerylaurasbakery.nl', 'Baktrutgerbakt.nl', 'Broodsmakelijkbroodsmakelijk.nl', 'goedkoop)?broodsmakelijk.nl', 'Omabakkenzoalsoma.nl', 'Heijnah.nl', 'waterlily-unlimitedwaterlily-unlimited.nl']</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>['DierenDoktersdierendokters.com', 'Petplan.nlpetplan.nl', 'hondennamen.nl', 'hond.hondennamen.nu', '2020!herdershonden.nl', 'Dierenmcvoordieren.nl', 'Honden-plein.nlhonden-plein.nl', 'honden-plein.nl', 'Caninroyalcanin.nl', 'Dierennamendierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>['Alletop10lijstjesalletop10lijstjes.nl', 'Scholieren.comscholieren.com', 'Tolunanl.toluna.com', '2020nl.ripleybelieves.com', 'Gezondheidsplein.nlgezondheidsplein.nl', 'Natuurinformatienatuurinformatie.nl', 'Wel.nlwelingelichtekringen.nl', 'Kosmisch.nlkosmisch.nl', 'competicionesdemotos.com']</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>['wiskundeonderwijswisfaq.nl', 'facebook.com', 'Wikipedianl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'gezondmaxvandaag.nl', 'Voedingscentrumvoedingscentrum.nl', 'uitlegrdzl.nl', 'voedingsacademy.nl']</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>['CBScbs.nl', 'CBScbs.nl', 'CBScbs.nl', 'Wikipedianl.wikipedia.org', 'NRCnrc.nl', 'allecijfers.nl', 'cijfersrepubliekallochtonie.nl', 'volkskrant.nl', 'rtlnieuws.nl', 'hartvannederland.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'Lekkerlibelle-lekker.be', 'Baktrutgerbakt.nl', 'Bakerylaurasbakery.nl', 'Broodsmakelijkbroodsmakelijk.nl', 'goedkoop)?broodsmakelijk.nl', 'Omabakkenzoalsoma.nl', 'Heijnah.nl', 'waterlily-unlimitedwaterlily-unlimited.nl']</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>['DierenDoktersdierendokters.com', 'Petplan.nlpetplan.nl', 'hondennamen.nl', '2020!herdershonden.nl', 'hond.hondennamen.nu', 'Dierenmcvoordieren.nl', 'Honden-plein.nlhonden-plein.nl', 'honden-plein.nl', 'Caninroyalcanin.nl', 'Dierennamendierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>['Alletop10lijstjesalletop10lijstjes.nl', 'Scholieren.comscholieren.com', 'Tolunanl.toluna.com', '2020nl.ripleybelieves.com', 'Gezondheidsplein.nlgezondheidsplein.nl', 'Bambergofa-bamberg.com', 'Natuurinformatienatuurinformatie.nl', 'Wel.nlwelingelichtekringen.nl', 'Wikikidswikikids.nl']</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>['facebook.com', 'wiskundeonderwijswisfaq.nl', 'Wikipedianl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'gezondmaxvandaag.nl', 'Voedingscentrumvoedingscentrum.nl', 'Vitensvitens.com', 'uitlegrdzl.nl']</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>['CBScbs.nl', 'CBScbs.nl', 'CBScbs.nl', 'Wikipedianl.wikipedia.org', 'NRCnrc.nl', 'allecijfers.nl', 'cijfersrepubliekallochtonie.nl', 'volkskrant.nl', 'rtlnieuws.nl', 'hartvannederland.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'Lekkerlibelle-lekker.be', 'Broodsmakelijkbroodsmakelijk.nl', 'Baktrutgerbakt.nl', 'Heijnah.nl', 'Bakerylaurasbakery.nl', 'Omabakkenzoalsoma.nl', 'Culy.nlculy.nl', 'patesserie.com']</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>['DierenDoktersdierendokters.com', 'hondennamen.nl', 'Petplan.nlpetplan.nl', '2020!herdershonden.nl', 'hond.hondennamen.nu', 'Honden-plein.nlhonden-plein.nl', 'honden-plein.nl', 'Dierenmcvoordieren.nl', 'Caninroyalcanin.nl', 'Dierennamendierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>['Alletop10lijstjesalletop10lijstjes.nl', 'Scholieren.comscholieren.com', 'Tolunanl.toluna.com', '2020nl.ripleybelieves.com', 'Gezondheidsplein.nlgezondheidsplein.nl', 'Bambergofa-bamberg.com', 'Natuurinformatienatuurinformatie.nl', 'Wikikidswikikids.nl', 'Wel.nlwelingelichtekringen.nl']</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['facebook.com', 'wiskundeonderwijswisfaq.nl', 'Wikipedianl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'gezondmaxvandaag.nl', 'Voedingscentrumvoedingscentrum.nl', 'voedingsacademy.nl', 'Vitensvitens.com']</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>['CBScbs.nl', 'CBScbs.nl', 'CBScbs.nl', 'Wikipedianl.wikipedia.org', 'NRCnrc.nl', 'allecijfers.nl', 'volkskrant.nl', 'cijfersrepubliekallochtonie.nl', 'rtlnieuws.nl', 'hartvannederland.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'Lekkerlibelle-lekker.be', 'Broodsmakelijkbroodsmakelijk.nl', 'Baktrutgerbakt.nl', 'Heijnah.nl', 'Bakerylaurasbakery.nl', 'Omabakkenzoalsoma.nl', 'Culy.nlculy.nl', 'patesserie.com']</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>['DierenDoktersdierendokters.com', 'hondennamen.nl', 'Petplan.nlpetplan.nl', '2020!herdershonden.nl', 'hond.hondennamen.nu', 'Honden-plein.nlhonden-plein.nl', 'honden-plein.nl', 'Caninroyalcanin.nl', 'Dierenmcvoordieren.nl', 'Dierennamendierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>['Alletop10lijstjesalletop10lijstjes.nl', 'Scholieren.comscholieren.com', 'Tolunanl.toluna.com', '2020nl.ripleybelieves.com', 'Gezondheidsplein.nlgezondheidsplein.nl', 'Bambergofa-bamberg.com', 'Natuurinformatienatuurinformatie.nl', 'Wikikidswikikids.nl', 'Wel.nlwelingelichtekringen.nl']</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>['facebook.com', 'wiskundeonderwijswisfaq.nl', 'Wikipedianl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'gezondmaxvandaag.nl', 'Voedingscentrumvoedingscentrum.nl', 'uitlegrdzl.nl', 'voedingsacademy.nl']</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>['CBScbs.nl', 'CBScbs.nl', 'CBScbs.nl', 'Wikipedianl.wikipedia.org', 'NRCnrc.nl', 'allecijfers.nl', 'volkskrant.nl', 'cijfersrepubliekallochtonie.nl', 'rtlnieuws.nl', 'hartvannederland.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'Lekkerlibelle-lekker.be', 'Baktrutgerbakt.nl', 'Omabakkenzoalsoma.nl', 'Broodsmakelijkbroodsmakelijk.nl', 'goedkoop)?broodsmakelijk.nl', 'Bakerylaurasbakery.nl', 'Heijnah.nl', 'Culy.nlculy.nl']</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>['DierenDoktersdierendokters.com', 'hondennamen.nl', 'Petplan.nlpetplan.nl', '2020!herdershonden.nl', 'hond.hondennamen.nu', 'Honden-plein.nlhonden-plein.nl', 'honden-plein.nl', 'Dierenmcvoordieren.nl', 'Caninroyalcanin.nl', 'Dierennamendierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>['Alletop10lijstjesalletop10lijstjes.nl', 'Scholieren.comscholieren.com', 'Tolunanl.toluna.com', '2020nl.ripleybelieves.com', 'Gezondheidsplein.nlgezondheidsplein.nl', 'Bambergofa-bamberg.com', 'Natuurinformatienatuurinformatie.nl', 'Wikikidswikikids.nl', 'Wel.nlwelingelichtekringen.nl']</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>['facebook.com', 'wiskundeonderwijswisfaq.nl', 'Wikipedianl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'gezondmaxvandaag.nl', 'Voedingscentrumvoedingscentrum.nl', 'voedingsacademy.nl', 'Vitensvitens.com']</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>['CBScbs.nl', 'CBScbs.nl', 'CBScbs.nl', 'Wikipedianl.wikipedia.org', 'NRCnrc.nl', 'allecijfers.nl', 'cijfersrepubliekallochtonie.nl', 'volkskrant.nl', 'rtlnieuws.nl', 'hartvannederland.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>['Lekkerlibelle-lekker.be', 'uitpaulineskeuken.nl', 'Omabakkenzoalsoma.nl', 'Broodsmakelijkbroodsmakelijk.nl', 'Recepten.tipsrecepten.tips', 'kostdagelijksekost.een.be', 'Bakerylaurasbakery.nl', 'Baktrutgerbakt.nl', 'Aveveavevewinkels.be']</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>['DierenDoktersdierendokters.com', 'hond.hondennamen.nu', 'Petplan.nlpetplan.nl', 'Dierennamendierennamen.net', 'hondennamen.nl', 'hondennamen.nl', 'Honden-plein.nlhonden-plein.nl', 'Dierenmcvoordieren.nl', 'Caninroyalcanin.nl']</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>['Tolunanl.toluna.com', 'Alletop10lijstjesalletop10lijstjes.nl', '2020nl.ripleybelieves.com', 'Scholieren.comscholieren.com', 'Bambergofa-bamberg.com', 'Wikikidswikikids.nl', 'startpagina.nl', 'Gezondheidsplein.nlgezondheidsplein.nl']</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>['Wikipedianl.wikipedia.org', 'wiskundeonderwijswisfaq.nl', 'startpagina.nl', 'gezondmaxvandaag.nl', 'Dokterdokter.nldokterdokter.nl', 'Voedingscentrumvoedingscentrum.nl', 'uitlegrdzl.nl', 'Vitensvitens.com']</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>['CBScbs.nl', 'CBScbs.nl', 'Wikipedianl.wikipedia.org', 'NRCnrc.nl', 'allecijfers.nl', 'cijfersrepubliekallochtonie.nl', 'rtlnieuws.nl', 'volkskrant.nl', 'hartvannederland.nl', 'rtlz.nl']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>['uitpaulineskeuken.nl', 'Bakerylaurasbakery.nl', 'Broodsmakelijkbroodsmakelijk.nl', 'Lekkerlibelle-lekker.be', 'Baktrutgerbakt.nl', 'Baktrutgerbakt.nl', 'Omabakkenzoalsoma.nl', 'Heijnah.nl', 'patesserie.com']</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>['DierenDoktersdierendokters.com', 'hondennamen.nl', 'Petplan.nlpetplan.nl', '2020!herdershonden.nl', 'hond.hondennamen.nu', 'Honden-plein.nlhonden-plein.nl', 'honden-plein.nl', 'Caninroyalcanin.nl', 'Dierenmcvoordieren.nl', 'Dierennamendierennamen.net']</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>['Alletop10lijstjesalletop10lijstjes.nl', 'Scholieren.comscholieren.com', 'Tolunanl.toluna.com', '2020nl.ripleybelieves.com', 'Bambergofa-bamberg.com', 'Gezondheidsplein.nlgezondheidsplein.nl', 'Natuurinformatienatuurinformatie.nl', 'Wikikidswikikids.nl', 'Wel.nlwelingelichtekringen.nl']</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>['facebook.com', 'wiskundeonderwijswisfaq.nl', 'Wikipedianl.wikipedia.org', 'startpagina.nl', 'startpagina.nl', 'gezondmaxvandaag.nl', 'Voedingscentrumvoedingscentrum.nl', 'Vitensvitens.com', 'voedingsacademy.nl']</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>['CBScbs.nl', 'CBScbs.nl', 'CBScbs.nl', 'Wikipedianl.wikipedia.org', 'NRCnrc.nl', 'allecijfers.nl', 'volkskrant.nl', 'cijfersrepubliekallochtonie.nl', 'rtlnieuws.nl', 'hartvannederland.nl']</t>
         </is>
       </c>
     </row>
